--- a/Global_M2/TVDataFeed/FinalData/Czech Republic.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Czech Republic.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D255"/>
+  <dimension ref="A1:D258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3859,13 +3859,13 @@
         <v>44896</v>
       </c>
       <c r="B253" t="n">
-        <v>5816676440000</v>
+        <v>5817095330000</v>
       </c>
       <c r="C253" t="n">
         <v>0.04434186692562317</v>
       </c>
       <c r="D253" t="n">
-        <v>257922292651.8875</v>
+        <v>257940867016.524</v>
       </c>
     </row>
     <row r="254">
@@ -3873,13 +3873,13 @@
         <v>44927</v>
       </c>
       <c r="B254" t="n">
-        <v>5951115760000</v>
+        <v>5950864520000</v>
       </c>
       <c r="C254" t="n">
         <v>0.04569318851638786</v>
       </c>
       <c r="D254" t="n">
-        <v>271925454304.5268</v>
+        <v>271913974347.8439</v>
       </c>
     </row>
     <row r="255">
@@ -3887,13 +3887,55 @@
         <v>44958</v>
       </c>
       <c r="B255" t="n">
-        <v>6045009370000</v>
+        <v>6045092150000</v>
       </c>
       <c r="C255" t="n">
         <v>0.04501229961086867</v>
       </c>
       <c r="D255" t="n">
-        <v>272099772912.9485</v>
+        <v>272103499031.1103</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B256" t="n">
+        <v>6077620130000</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.04620292787953972</v>
+      </c>
+      <c r="D256" t="n">
+        <v>280803844545.6288</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B257" t="n">
+        <v>6141246740000</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.04682075376731491</v>
+      </c>
+      <c r="D257" t="n">
+        <v>287537801437.8654</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B258" t="n">
+        <v>6224272840000</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.04506372010022171</v>
+      </c>
+      <c r="D258" t="n">
+        <v>280488889089.1721</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Czech Republic.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Czech Republic.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D258"/>
+  <dimension ref="A1:D259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3187,13 +3187,13 @@
         <v>43435</v>
       </c>
       <c r="B205" t="n">
-        <v>4373170050000</v>
+        <v>4373594970000</v>
       </c>
       <c r="C205" t="n">
         <v>0.04458767988899451</v>
       </c>
       <c r="D205" t="n">
-        <v>194989506289.5381</v>
+        <v>195008452486.4765</v>
       </c>
     </row>
     <row r="206">
@@ -3201,13 +3201,13 @@
         <v>43466</v>
       </c>
       <c r="B206" t="n">
-        <v>4411369020000</v>
+        <v>4411934620000</v>
       </c>
       <c r="C206" t="n">
         <v>0.04444736809354571</v>
       </c>
       <c r="D206" t="n">
-        <v>196073742628.404</v>
+        <v>196098882059.7977</v>
       </c>
     </row>
     <row r="207">
@@ -3257,13 +3257,13 @@
         <v>43586</v>
       </c>
       <c r="B210" t="n">
-        <v>4577407600000</v>
+        <v>4577407590000</v>
       </c>
       <c r="C210" t="n">
         <v>0.04321857361419643</v>
       </c>
       <c r="D210" t="n">
-        <v>197829027322.7822</v>
+        <v>197829026890.5965</v>
       </c>
     </row>
     <row r="211">
@@ -3271,13 +3271,13 @@
         <v>43617</v>
       </c>
       <c r="B211" t="n">
-        <v>4566451100000</v>
+        <v>4566459490000</v>
       </c>
       <c r="C211" t="n">
         <v>0.04472023912806267</v>
       </c>
       <c r="D211" t="n">
-        <v>204212785158.6048</v>
+        <v>204213160361.4111</v>
       </c>
     </row>
     <row r="212">
@@ -3285,13 +3285,13 @@
         <v>43647</v>
       </c>
       <c r="B212" t="n">
-        <v>4592288960000</v>
+        <v>4592275590000</v>
       </c>
       <c r="C212" t="n">
         <v>0.04312207255029975</v>
       </c>
       <c r="D212" t="n">
-        <v>198029017705.0606</v>
+        <v>198028441162.9506</v>
       </c>
     </row>
     <row r="213">
@@ -3299,13 +3299,13 @@
         <v>43678</v>
       </c>
       <c r="B213" t="n">
-        <v>4639954010000</v>
+        <v>4639859400000</v>
       </c>
       <c r="C213" t="n">
         <v>0.04232044703934617</v>
       </c>
       <c r="D213" t="n">
-        <v>196364927945.2069</v>
+        <v>196360924007.7125</v>
       </c>
     </row>
     <row r="214">
@@ -3313,13 +3313,13 @@
         <v>43709</v>
       </c>
       <c r="B214" t="n">
-        <v>4641362350000</v>
+        <v>4641345140000</v>
       </c>
       <c r="C214" t="n">
         <v>0.04225410435242627</v>
       </c>
       <c r="D214" t="n">
-        <v>196116609074.3224</v>
+        <v>196115881881.1865</v>
       </c>
     </row>
     <row r="215">
@@ -3327,13 +3327,13 @@
         <v>43739</v>
       </c>
       <c r="B215" t="n">
-        <v>4681213570000</v>
+        <v>4681223420000</v>
       </c>
       <c r="C215" t="n">
         <v>0.04370755450113509</v>
       </c>
       <c r="D215" t="n">
-        <v>204604397242.2281</v>
+        <v>204604827761.64</v>
       </c>
     </row>
     <row r="216">
@@ -3341,13 +3341,13 @@
         <v>43770</v>
       </c>
       <c r="B216" t="n">
-        <v>4725517240000</v>
+        <v>4725508480000</v>
       </c>
       <c r="C216" t="n">
         <v>0.04313419998567945</v>
       </c>
       <c r="D216" t="n">
-        <v>203831405665.936</v>
+        <v>203831027810.3441</v>
       </c>
     </row>
     <row r="217">
@@ -3355,13 +3355,13 @@
         <v>43800</v>
       </c>
       <c r="B217" t="n">
-        <v>4680363740000</v>
+        <v>4680322510000</v>
       </c>
       <c r="C217" t="n">
         <v>0.04410637398853057</v>
       </c>
       <c r="D217" t="n">
-        <v>206433873518.7977</v>
+        <v>206432055012.9981</v>
       </c>
     </row>
     <row r="218">
@@ -3383,13 +3383,13 @@
         <v>43862</v>
       </c>
       <c r="B219" t="n">
-        <v>4809042720000</v>
+        <v>4809150480000</v>
       </c>
       <c r="C219" t="n">
         <v>0.04331535745998744</v>
       </c>
       <c r="D219" t="n">
-        <v>208305404457.1503</v>
+        <v>208310072120.0702</v>
       </c>
     </row>
     <row r="220">
@@ -3411,13 +3411,13 @@
         <v>43922</v>
       </c>
       <c r="B221" t="n">
-        <v>4958717610000</v>
+        <v>4958595660000</v>
       </c>
       <c r="C221" t="n">
         <v>0.04036895611127461</v>
       </c>
       <c r="D221" t="n">
-        <v>200178253566.2945</v>
+        <v>200173330572.0967</v>
       </c>
     </row>
     <row r="222">
@@ -3425,13 +3425,13 @@
         <v>43952</v>
       </c>
       <c r="B222" t="n">
-        <v>5004609390000</v>
+        <v>5004666910000</v>
       </c>
       <c r="C222" t="n">
         <v>0.04121819552510538</v>
       </c>
       <c r="D222" t="n">
-        <v>206280968363.7984</v>
+        <v>206283339234.405</v>
       </c>
     </row>
     <row r="223">
@@ -3439,13 +3439,13 @@
         <v>43983</v>
       </c>
       <c r="B223" t="n">
-        <v>5020824960000</v>
+        <v>5020790900000</v>
       </c>
       <c r="C223" t="n">
         <v>0.04211998298352687</v>
       </c>
       <c r="D223" t="n">
-        <v>211477061878.467</v>
+        <v>211475627271.8466</v>
       </c>
     </row>
     <row r="224">
@@ -3453,13 +3453,13 @@
         <v>44013</v>
       </c>
       <c r="B224" t="n">
-        <v>5059207370000</v>
+        <v>5059232680000</v>
       </c>
       <c r="C224" t="n">
         <v>0.04488479419873012</v>
       </c>
       <c r="D224" t="n">
-        <v>227081481611.1487</v>
+        <v>227082617645.2899</v>
       </c>
     </row>
     <row r="225">
@@ -3467,13 +3467,13 @@
         <v>44044</v>
       </c>
       <c r="B225" t="n">
-        <v>5094328550000</v>
+        <v>5094308060000</v>
       </c>
       <c r="C225" t="n">
         <v>0.04544954600448496</v>
       </c>
       <c r="D225" t="n">
-        <v>231534919795.1862</v>
+        <v>231533988533.9885</v>
       </c>
     </row>
     <row r="226">
@@ -3481,13 +3481,13 @@
         <v>44075</v>
       </c>
       <c r="B226" t="n">
-        <v>5178059350000</v>
+        <v>5178041490000</v>
       </c>
       <c r="C226" t="n">
         <v>0.04328762592911478</v>
       </c>
       <c r="D226" t="n">
-        <v>224145896181.5552</v>
+        <v>224145123064.5561</v>
       </c>
     </row>
     <row r="227">
@@ -3495,13 +3495,13 @@
         <v>44105</v>
       </c>
       <c r="B227" t="n">
-        <v>5214257420000</v>
+        <v>5214187690000</v>
       </c>
       <c r="C227" t="n">
         <v>0.0427220800526336</v>
       </c>
       <c r="D227" t="n">
-        <v>222763922912.2787</v>
+        <v>222760943901.6367</v>
       </c>
     </row>
     <row r="228">
@@ -3509,13 +3509,13 @@
         <v>44136</v>
       </c>
       <c r="B228" t="n">
-        <v>5235469580000</v>
+        <v>5235568230000</v>
       </c>
       <c r="C228" t="n">
         <v>0.0454573348819132</v>
       </c>
       <c r="D228" t="n">
-        <v>237990493962.1295</v>
+        <v>237994978328.2156</v>
       </c>
     </row>
     <row r="229">
@@ -3523,13 +3523,13 @@
         <v>44166</v>
       </c>
       <c r="B229" t="n">
-        <v>5179705780000</v>
+        <v>5179738620000</v>
       </c>
       <c r="C229" t="n">
         <v>0.04654377558453164</v>
       </c>
       <c r="D229" t="n">
-        <v>241083063418.2214</v>
+        <v>241084591915.8116</v>
       </c>
     </row>
     <row r="230">
@@ -3537,13 +3537,13 @@
         <v>44197</v>
       </c>
       <c r="B230" t="n">
-        <v>5290482680000</v>
+        <v>5290478980000</v>
       </c>
       <c r="C230" t="n">
         <v>0.0466059236128912</v>
       </c>
       <c r="D230" t="n">
-        <v>246567831659.4039</v>
+        <v>246567659217.4866</v>
       </c>
     </row>
     <row r="231">
@@ -3551,13 +3551,13 @@
         <v>44228</v>
       </c>
       <c r="B231" t="n">
-        <v>5390476530000</v>
+        <v>5390398340000</v>
       </c>
       <c r="C231" t="n">
         <v>0.04614685313071788</v>
       </c>
       <c r="D231" t="n">
-        <v>248753528734.4918</v>
+        <v>248749920512.0455</v>
       </c>
     </row>
     <row r="232">
@@ -3565,13 +3565,13 @@
         <v>44256</v>
       </c>
       <c r="B232" t="n">
-        <v>5449477500000</v>
+        <v>5449356120000</v>
       </c>
       <c r="C232" t="n">
         <v>0.04490406247053171</v>
       </c>
       <c r="D232" t="n">
-        <v>244703678091.7569</v>
+        <v>244698227636.6543</v>
       </c>
     </row>
     <row r="233">
@@ -3579,13 +3579,13 @@
         <v>44287</v>
       </c>
       <c r="B233" t="n">
-        <v>5471490380000</v>
+        <v>5471474170000</v>
       </c>
       <c r="C233" t="n">
         <v>0.04646084512277279</v>
       </c>
       <c r="D233" t="n">
-        <v>254210067135.9212</v>
+        <v>254209314005.6218</v>
       </c>
     </row>
     <row r="234">
@@ -3593,13 +3593,13 @@
         <v>44317</v>
       </c>
       <c r="B234" t="n">
-        <v>5507491420000</v>
+        <v>5507491430000</v>
       </c>
       <c r="C234" t="n">
         <v>0.04807426512476474</v>
       </c>
       <c r="D234" t="n">
-        <v>264768602697.447</v>
+        <v>264768603178.1897</v>
       </c>
     </row>
     <row r="235">
@@ -3621,13 +3621,13 @@
         <v>44378</v>
       </c>
       <c r="B236" t="n">
-        <v>5564521600000</v>
+        <v>5564521500000</v>
       </c>
       <c r="C236" t="n">
         <v>0.04655688553058555</v>
       </c>
       <c r="D236" t="n">
-        <v>259066795163.6707</v>
+        <v>259066790507.9822</v>
       </c>
     </row>
     <row r="237">
@@ -3663,13 +3663,13 @@
         <v>44470</v>
       </c>
       <c r="B239" t="n">
-        <v>5617152320000</v>
+        <v>5617130550000</v>
       </c>
       <c r="C239" t="n">
         <v>0.04506625866680487</v>
       </c>
       <c r="D239" t="n">
-        <v>253144039423.9631</v>
+        <v>253143058331.5119</v>
       </c>
     </row>
     <row r="240">
@@ -3677,13 +3677,13 @@
         <v>44501</v>
       </c>
       <c r="B240" t="n">
-        <v>5647836650000</v>
+        <v>5647837280000</v>
       </c>
       <c r="C240" t="n">
         <v>0.04443605096815046</v>
       </c>
       <c r="D240" t="n">
-        <v>250967557239.1881</v>
+        <v>250967585233.9003</v>
       </c>
     </row>
     <row r="241">
@@ -3691,13 +3691,13 @@
         <v>44531</v>
       </c>
       <c r="B241" t="n">
-        <v>5542017330000</v>
+        <v>5542014840000</v>
       </c>
       <c r="C241" t="n">
         <v>0.0456974690456769</v>
       </c>
       <c r="D241" t="n">
-        <v>253256165388.28</v>
+        <v>253256051601.582</v>
       </c>
     </row>
     <row r="242">
@@ -3705,13 +3705,13 @@
         <v>44562</v>
       </c>
       <c r="B242" t="n">
-        <v>5630380760000</v>
+        <v>5630383690000</v>
       </c>
       <c r="C242" t="n">
         <v>0.04615750324833429</v>
       </c>
       <c r="D242" t="n">
-        <v>259884318219.0589</v>
+        <v>259884453460.5434</v>
       </c>
     </row>
     <row r="243">
@@ -3719,13 +3719,13 @@
         <v>44593</v>
       </c>
       <c r="B243" t="n">
-        <v>5704250440000</v>
+        <v>5704249840000</v>
       </c>
       <c r="C243" t="n">
         <v>0.04458006691468044</v>
       </c>
       <c r="D243" t="n">
-        <v>254295866313.2953</v>
+        <v>254295839565.2552</v>
       </c>
     </row>
     <row r="244">
@@ -3733,13 +3733,13 @@
         <v>44621</v>
       </c>
       <c r="B244" t="n">
-        <v>5739159780000</v>
+        <v>5739159050000</v>
       </c>
       <c r="C244" t="n">
         <v>0.04532536815530284</v>
       </c>
       <c r="D244" t="n">
-        <v>260129529930.6069</v>
+        <v>260129496843.0881</v>
       </c>
     </row>
     <row r="245">
@@ -3747,13 +3747,13 @@
         <v>44652</v>
       </c>
       <c r="B245" t="n">
-        <v>5741489170000</v>
+        <v>5742427260000</v>
       </c>
       <c r="C245" t="n">
         <v>0.04284086332907781</v>
       </c>
       <c r="D245" t="n">
-        <v>245970352837.3504</v>
+        <v>246010541422.8308</v>
       </c>
     </row>
     <row r="246">
@@ -3761,13 +3761,13 @@
         <v>44682</v>
       </c>
       <c r="B246" t="n">
-        <v>5822815770000</v>
+        <v>5825723830000</v>
       </c>
       <c r="C246" t="n">
         <v>0.04342473516339642</v>
       </c>
       <c r="D246" t="n">
-        <v>252854232717.4982</v>
+        <v>252980514452.8375</v>
       </c>
     </row>
     <row r="247">
@@ -3775,13 +3775,13 @@
         <v>44713</v>
       </c>
       <c r="B247" t="n">
-        <v>5801927790000</v>
+        <v>5801917230000</v>
       </c>
       <c r="C247" t="n">
         <v>0.0423753053670443</v>
       </c>
       <c r="D247" t="n">
-        <v>245858461818.7905</v>
+        <v>245858014335.5658</v>
       </c>
     </row>
     <row r="248">
@@ -3789,13 +3789,13 @@
         <v>44743</v>
       </c>
       <c r="B248" t="n">
-        <v>5833040100000</v>
+        <v>5833040250000</v>
       </c>
       <c r="C248" t="n">
         <v>0.04154695948963715</v>
       </c>
       <c r="D248" t="n">
-        <v>242345080736.129</v>
+        <v>242345086968.173</v>
       </c>
     </row>
     <row r="249">
@@ -3803,13 +3803,13 @@
         <v>44774</v>
       </c>
       <c r="B249" t="n">
-        <v>5855414920000</v>
+        <v>5855415460000</v>
       </c>
       <c r="C249" t="n">
         <v>0.04101916210157575</v>
       </c>
       <c r="D249" t="n">
-        <v>240184213775.4652</v>
+        <v>240184235925.8127</v>
       </c>
     </row>
     <row r="250">
@@ -3817,13 +3817,13 @@
         <v>44805</v>
       </c>
       <c r="B250" t="n">
-        <v>5887346900000</v>
+        <v>5887405600000</v>
       </c>
       <c r="C250" t="n">
         <v>0.03985937612104495</v>
       </c>
       <c r="D250" t="n">
-        <v>234665974442.168</v>
+        <v>234668314187.5463</v>
       </c>
     </row>
     <row r="251">
@@ -3831,13 +3831,13 @@
         <v>44835</v>
       </c>
       <c r="B251" t="n">
-        <v>5915929780000</v>
+        <v>5915934540000</v>
       </c>
       <c r="C251" t="n">
         <v>0.04037255796490009</v>
       </c>
       <c r="D251" t="n">
-        <v>238841217959.3287</v>
+        <v>238841410132.7046</v>
       </c>
     </row>
     <row r="252">
@@ -3845,13 +3845,13 @@
         <v>44866</v>
       </c>
       <c r="B252" t="n">
-        <v>5939805780000</v>
+        <v>5940210650000</v>
       </c>
       <c r="C252" t="n">
         <v>0.04275185115515502</v>
       </c>
       <c r="D252" t="n">
-        <v>253937692597.0895</v>
+        <v>253955001539.0667</v>
       </c>
     </row>
     <row r="253">
@@ -3901,13 +3901,13 @@
         <v>44986</v>
       </c>
       <c r="B256" t="n">
-        <v>6077620130000</v>
+        <v>6077524080000</v>
       </c>
       <c r="C256" t="n">
         <v>0.04620292787953972</v>
       </c>
       <c r="D256" t="n">
-        <v>280803844545.6288</v>
+        <v>280799406754.406</v>
       </c>
     </row>
     <row r="257">
@@ -3929,13 +3929,27 @@
         <v>45047</v>
       </c>
       <c r="B258" t="n">
-        <v>6224272840000</v>
+        <v>6224248910000</v>
       </c>
       <c r="C258" t="n">
         <v>0.04506372010022171</v>
       </c>
       <c r="D258" t="n">
-        <v>280488889089.1721</v>
+        <v>280487810714.3501</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B259" t="n">
+        <v>6243183470000</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.04592443593311565</v>
+      </c>
+      <c r="D259" t="n">
+        <v>286714679286.7017</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Czech Republic.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Czech Republic.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D259"/>
+  <dimension ref="A1:D262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3943,13 +3943,55 @@
         <v>45078</v>
       </c>
       <c r="B259" t="n">
-        <v>6243183470000</v>
+        <v>6243090940000</v>
       </c>
       <c r="C259" t="n">
         <v>0.04592443593311565</v>
       </c>
       <c r="D259" t="n">
-        <v>286714679286.7017</v>
+        <v>286710429898.6448</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B260" t="n">
+        <v>6355692770000</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.04603977376055174</v>
+      </c>
+      <c r="D260" t="n">
+        <v>292614657222.3744</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B261" t="n">
+        <v>6337051350000</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.04504991530615922</v>
+      </c>
+      <c r="D261" t="n">
+        <v>285483626608.2819</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B262" t="n">
+        <v>6359425540000</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.04329632219391124</v>
+      </c>
+      <c r="D262" t="n">
+        <v>275339737148.028</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Czech Republic.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Czech Republic.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Czech Republic_M2 (CZK)</t>
+  </si>
+  <si>
+    <t>Czech Republic_FX (USD)</t>
+  </si>
+  <si>
+    <t>Czech Republic_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,3575 +385,3505 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D262"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Czech Republic_M2 (CZK)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Czech Republic_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Czech Republic_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>37257</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1338996240000</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>37288</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1343323750000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>37316</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1331051750000</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>37347</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1351715080000</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>37377</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1369800750000</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>37408</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1326829940000</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>37438</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1349083360000</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>37469</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1376758480000</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>37500</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1369943190000</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>37530</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1405644210000</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>37561</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1413037240000</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>37591</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1410235190000</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>37622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1414895380000</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>37653</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>1417120580000</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>37681</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1410427990000</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
         <v>37712</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>1437691540000</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
         <v>37742</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>1433220720000</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
         <v>37773</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>1422692810000</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
         <v>37803</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>1463791450000</v>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
         <v>37834</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1482925200000</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
         <v>37865</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>1476599640000</v>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
         <v>37895</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1484453290000</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
         <v>37926</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1495210990000</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
         <v>37956</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1511507440000</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
         <v>37987</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1504296110000</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
         <v>38018</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1510599540000</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
         <v>38047</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1511369020000</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
         <v>38078</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1543667730000</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
         <v>38108</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1548622640000</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
         <v>38139</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1553886080000</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.03821753420469311</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>59385694412.5965</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
         <v>38169</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1566887940000</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.03794634386976815</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>59457668576.63264</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
         <v>38200</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1581312420000</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.03826081633277728</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>60502304066.35957</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
         <v>38231</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1582199580000</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.03941042011507843</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>62355150153.70064</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
         <v>38261</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1596899450000</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.0403520311194864</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>64438136301.09071</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
         <v>38292</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1590256060000</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.04288091113359977</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>68191628788.5285</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>38322</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1578889780000</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.04460959909353295</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>70433640098.67644</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
         <v>38353</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>1571843320000</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.04332323901864199</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>68097343852.21577</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
         <v>38384</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>1594197220000</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.04455553624815652</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>71030312022.42035</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
         <v>38412</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>1588817230000</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.04314119682308226</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>68543476835.33436</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
         <v>38443</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>1626076360000</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.04213418051125615</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>68513394877.32634</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
         <v>38473</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>1651245200000</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.04053161263127176</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>66927630805.64686</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
         <v>38504</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>1656472660000</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.04023950553695596</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>66655640773.88617</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
         <v>38534</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>1671234850000</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.04017500231006263</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>67141863959.40717</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
         <v>38565</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>1674838950000</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.04199439794731383</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>70333853363.96124</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
         <v>38596</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>1672753690000</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.04060435522314124</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>67921085029.58028</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
         <v>38626</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1701737620000</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.04045258350424549</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>68839683175.36598</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
         <v>38657</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1732929220000</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.04073170433670456</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>70585160625.47606</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
         <v>38687</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1746148190000</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.04072871822650869</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>71118377612.23816</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
         <v>38718</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>1765945610000</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>0.04285959197668438</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>75687708297.617</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
         <v>38749</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>1781266700000</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>0.04210934111513957</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>75007967087.33899</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
         <v>38777</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>1782170090000</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0.04256713902001932</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>75861881978.35034</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
         <v>38808</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>1831666200000</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>0.04432977808513091</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>81197356172.035</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
         <v>38838</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>1836479050000</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.04530873371151024</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>83208540243.2173</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
         <v>38869</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>1853332430000</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>0.04487283039865023</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>83164271803.7083</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
         <v>38899</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>1870437220000</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>0.04480768541420225</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>83809962540.77501</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
         <v>38930</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>1902606860000</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>0.04534633261534974</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>86276243509.80615</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
         <v>38961</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>1890417570000</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>0.04477478284230321</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>84643036178.02454</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
         <v>38991</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>1930600830000</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>0.04535126824821656</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>87555196121.55954</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
         <v>39022</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>1946581850000</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>0.04749398013801751</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>92450919720.92537</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
         <v>39052</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>1984629210000</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>0.04801782421634911</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>95297576540.41179</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
         <v>39083</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>2008484650000</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>0.04636670499647613</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>93126815256.50061</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
         <v>39114</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>2034778430000</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>0.04685486704931475</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>95339272812.46339</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
         <v>39142</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>2040597170000</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>0.04768353392206603</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>97302884376.96695</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
         <v>39173</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>2108093720000</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>0.04840573298139138</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>102043821710.0681</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
         <v>39203</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>2135635990000</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>0.04756133986001746</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>101573709137.6749</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
         <v>39234</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>2138669310000</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>0.04710728306860611</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>100746900576.3105</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
         <v>39264</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>2162789270000</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>0.04874520103495811</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>105425597762.4003</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
         <v>39295</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>2190246640000</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>0.0492199135895197</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>107803750360.5359</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
         <v>39326</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>2171105020000</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>0.05178580768511743</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>112432427029.913</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
         <v>39356</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>2218763700000</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>0.05373397384230154</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>119222990618.0482</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
         <v>39387</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>2260273180000</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>0.05577170188463735</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>126059281972.8013</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
         <v>39417</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>2308662830000</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>0.05502217668831423</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>127027654146.0036</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
         <v>39448</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>2315205460000</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>0.05712653527563553</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>132259666381.034</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
         <v>39479</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>2332657220000</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>0.06045766452041957</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>141027007647.8946</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
         <v>39508</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>2332645010000</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>0.06257430698955009</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>145963644953.3821</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
         <v>39539</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>2371463610000</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>0.06188501763723003</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>146758067330.8992</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
         <v>39569</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>2398932080000</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>0.0621272365805169</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>149039020874.7515</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
         <v>39600</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>2382676490000</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>0.06595435958316845</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>157147901991.8217</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
         <v>39630</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>2432765160000</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>0.06513597134017261</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>158460521739.1304</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
         <v>39661</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>2468169940000</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>0.05916634618229152</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>146032597106.7657</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
         <v>39692</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>2470692550000</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>0.05753243390961655</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>142144955843.857</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
         <v>39722</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>2510264130000</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>0.0529145324471913</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>132829452757.9054</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
         <v>39753</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>2548374000000</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>0.05002401152553225</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>127479890347.3667</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
         <v>39783</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>2633893500000</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>0.05203048986706209</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>137042769062.6707</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
         <v>39814</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>2646649570000</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>0.04583434550846331</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>121307450831.2059</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
         <v>39845</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>2660287780000</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>0.04506351702724991</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>119881923671.4149</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
         <v>39873</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>2630718630000</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>0.0484202881007142</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>127380153976.5162</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
         <v>39904</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>2655169050000</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>0.04946112108577053</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>131327637885.2403</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
         <v>39934</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>2677539170000</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>0.0525226635293129</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>140631488912.4657</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
         <v>39965</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>2623407730000</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>0.05409891228726955</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>141923504679.0149</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
         <v>39995</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>2607629040000</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.0557911180540058</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>145482539611.6938</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
         <v>40026</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>2602237950000</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>0.05628504095581005</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>146467069592.5132</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
         <v>40057</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>2564930980000</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>0.05798244291628495</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>148720964132.0608</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
         <v>40087</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>2593463140000</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>0.05548786036590914</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>143905720576.4523</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
         <v>40118</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>2607424980000</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>0.05737303777039195</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>149595891861.0035</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
         <v>40148</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>2649474870000</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>0.05416501914733427</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>143508857063.931</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
         <v>40179</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>2613108220000</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>0.05287972401014444</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>138180441482.2398</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
         <v>40210</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>2604635960000</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>0.05256352301756673</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>136908842235.842</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
         <v>40238</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>2615430160000</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>0.05319856363878175</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>139137127809.5491</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
         <v>40269</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>2658356430000</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>0.05188366230169415</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>137925267291.6573</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
         <v>40299</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>2706023290000</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>0.04823517154356408</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>130525497594.0296</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
         <v>40330</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>2699720950000</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>0.04761040973042509</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>128534820587.3125</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
         <v>40360</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>2688201720000</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>0.05263723052369833</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>141499493629.8424</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
         <v>40391</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>2676339180000</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>0.05120089130511584</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>137030951450.8029</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
         <v>40422</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>2672467780000</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>0.05542588976566488</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>148123904576.5711</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
         <v>40452</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>2674346810000</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>0.05662482092400383</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>151434409204.9309</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
         <v>40483</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>2673542390000</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>0.05204140205782112</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>139134894436.618</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
         <v>40513</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>2707985520000</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>0.05343307507347048</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>144695993588.031</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
         <v>40544</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>2684440450000</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>0.05661199834692964</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>151971538317.8311</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
         <v>40575</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>2687563160000</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>0.05668114870015956</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>152334167113.0307</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
         <v>40603</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>2673812820000</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>0.05769980866743446</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>154278488126.5334</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
         <v>40634</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>2704409450000</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>0.06123773714313709</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>165611915026.516</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
         <v>40664</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>2719433420000</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>0.05861650969165371</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>159403695419.237</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
         <v>40695</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>2690130540000</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>0.05956429906519789</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>160235740008.9823</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
         <v>40725</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>2717102700000</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>0.05953940317702255</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>161774673128.6766</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
         <v>40756</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>2707950330000</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>0.05956696011336784</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>161304369296.0913</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
         <v>40787</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>2739667530000</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>0.05423731755244342</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>148592217812.7283</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
         <v>40817</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>2745291100000</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>0.05569947681481428</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>152911277974.366</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
         <v>40848</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>2766283370000</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>0.0531697124050256</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>147082491213.705</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
         <v>40878</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>2818680190000</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>0.05066487515668113</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>142808079932.9603</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
         <v>40909</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>2810082710000</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>0.05167133517179943</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>145200725568.8885</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
         <v>40940</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>2836929050000</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>0.05351780564152597</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>151826217516.6989</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
         <v>40969</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>2830755990000</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>0.05378773209406398</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>152259944813.7869</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
         <v>41000</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>2853190610000</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>0.05307748569827148</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>151440183796.7175</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
         <v>41030</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>2873941190000</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>0.04808059846882526</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>138180812379.4078</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
         <v>41061</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>2869554030000</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>0.04962229986458074</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>142393870554.2761</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
         <v>41091</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>2884564010000</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>0.04857757571665283</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>140125126605.3067</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:4">
+      <c r="A129" s="2">
         <v>41122</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>2877996940000</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>0.05059732674083897</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>145618951532.3147</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
         <v>41153</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>2868038240000</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>0.05116788130688909</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>146751440247.9391</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
         <v>41183</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>2901251280000</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>0.0516481705959734</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>149844321051.2262</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
         <v>41214</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>2911366800000</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>0.0514371011695768</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>149752268633.3471</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:4">
+      <c r="A133" s="2">
         <v>41244</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>2949574040000</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>0.05260339460226048</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>155157607134.7036</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:4">
+      <c r="A134" s="2">
         <v>41275</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>2947320670000</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>0.05290070431997732</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>155915339299.8274</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:4">
+      <c r="A135" s="2">
         <v>41306</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>2964974100000</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>0.05087510264051958</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>150843361663.9822</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:4">
+      <c r="A136" s="2">
         <v>41334</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>2968084680000</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>0.04981017342906185</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>147840812662.9415</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:4">
+      <c r="A137" s="2">
         <v>41365</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>2983255360000</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>0.05102269897832148</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>152213740208.7441</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:4">
+      <c r="A138" s="2">
         <v>41395</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>2983005970000</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>0.05052224848256427</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>150708168841.3127</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:4">
+      <c r="A139" s="2">
         <v>41426</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>2981373150000</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>0.05002886665606054</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>149154719773.3092</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:4">
+      <c r="A140" s="2">
         <v>41456</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>3026742140000</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>0.05128223537212698</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>155218102834.2153</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:4">
+      <c r="A141" s="2">
         <v>41487</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>3011787370000</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>0.0513465109018912</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>154644773027.8832</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:4">
+      <c r="A142" s="2">
         <v>41518</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>3012468260000</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>0.05265635514815918</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>158625598571.1171</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:4">
+      <c r="A143" s="2">
         <v>41548</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>3027604710000</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>0.05266567304096863</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>159450839754.1566</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:4">
+      <c r="A144" s="2">
         <v>41579</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>3070322380000</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>0.04966204975144144</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>152478502788.5241</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>41609</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>3097920160000</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>0.05043256006770067</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>156236044554.1409</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>41640</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>3088469210000</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>0.04899530233041256</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>151320482682.1205</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
         <v>41671</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>3116626090000</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>0.05051770544540451</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>157444798798.0828</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
         <v>41699</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>3126444620000</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>0.05016474100947511</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>156837284642.7668</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
         <v>41730</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>3148018390000</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>0.05052212085800707</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>159044565562.8088</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
         <v>41760</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>3165959620000</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>0.04959854934162886</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>157027004426.1745</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
         <v>41791</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>3142213600000</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>0.04988496527008719</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>156749216307.1956</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
         <v>41821</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>3167890400000</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>0.04838177477896786</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>153268159857.2544</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
         <v>41852</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>3169130240000</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>0.04735949503412015</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>150088407863.76</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
         <v>41883</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>3171521370000</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>0.04593426622765757</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>145681506956.2852</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
         <v>41913</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>3202006490000</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>0.04505328451960133</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>144260909427.58</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
         <v>41944</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>3238165300000</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>0.04508110993299144</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>145980085870.4982</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
         <v>41974</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>3301158380000</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>0.04367437781481365</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>144176038314.6582</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
         <v>42005</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>3292105450000</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>0.04067274344568907</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>133898960364.0048</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
         <v>42036</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>3330004730000</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>0.04070209485541802</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>135538168389.4507</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
         <v>42064</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>3332309480000</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>0.03894414630536884</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>129773947923.8876</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>42095</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>3368176040000</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>0.04086750265230092</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>137648943248.1164</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>42125</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>3390052450000</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>0.04008048160706699</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>135874934869.2174</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>42156</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>3377484510000</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>0.04083932990827487</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>137934204163.9781</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>42186</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>3419180560000</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>0.04057048594516655</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>138717816853.4667</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>42217</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>3430151430000</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>0.04146236088341364</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>142222176475.4174</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>42248</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>3466902180000</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>0.04110591349671563</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>142510181112.6548</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>42278</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>3502753750000</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>0.0406197270516821</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>142280901254.2559</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>42309</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>3556384960000</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>0.03907973477365604</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>138982580989.8193</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>42339</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>3577992780000</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>0.04022749452704937</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>143933684975.2722</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>42370</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>3599727010000</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>0.04008835473383337</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>144307133321.8413</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>42401</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>3622849250000</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>0.04016683697405544</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>145518395206.329</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>42430</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>3632237780000</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>0.04208509775105655</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>152863082026.3806</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>42461</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>3661713540000</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>0.04233979890289113</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>155036214923.5936</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>42491</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>3702794260000</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>0.04119511986132075</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>152537053362.5105</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>42522</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>3690058260000</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>0.04100959050283499</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>151327778174.2038</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>42552</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>3725644040000</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>0.04133081931736365</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>153983920658.0528</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>42583</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>3744791890000</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>0.04128662329919756</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>154609812096.3201</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>42614</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>3758738350000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>0.04160521230099707</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>156383107035.6494</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>42644</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>3783983090000</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>0.0406371911573472</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>153770444164.4993</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>42675</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>3849082360000</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>0.03914828980695978</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>150684991720.1367</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>42705</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>3812905510000</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>0.03892974349192013</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>148435433463.2289</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>42736</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>3891072340000</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>0.03995930544333651</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>155484548136.1781</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>42767</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>3945119310000</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>0.039139218984713</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>154408888594.9099</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>42795</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>4017463390000</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>0.0394154530648668</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>158350139688.3657</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>42826</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>4081978010000</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>0.04059896464520361</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>165724080910.4886</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>42856</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>4094146990000</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>0.042664591460938</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>174675108709.379</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>42887</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>4060060440000</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>0.04373559732110719</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>177569168503.1973</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>42917</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>4094654780000</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>0.0454016319162576</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>185904009145.7047</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>42948</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>4121927630000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>0.04561163607570254</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>188007862989.9431</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>42979</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>4127941020000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>0.04547945579283198</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>187736511134.5078</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>43009</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>4109347610000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>0.04538836097181927</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>186516552681.3628</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>43040</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>4140657640000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>0.04665097327925552</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>193165708922.1852</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>43070</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>4139907940000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>0.04698466514498998</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>194512188291.9853</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>43101</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>4162727150000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>0.04912011144370884</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>204473621517.7525</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>43132</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>4204413050000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>0.04799141529563192</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>201775732756.9244</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>43160</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>4214303570000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>0.04863836886366179</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>204976851541.1067</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>43191</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>4241318890000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>0.04719478894018438</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>200168149841.5671</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>43221</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>4298226870000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>0.04527855594007112</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>194617505776.4118</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>43252</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>4274973110000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>0.04498463999467382</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>192308126340.2611</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>43282</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>4288848410000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>0.04572109946442304</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>196090864741.4426</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>43313</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>4318593920000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>0.04502861568526798</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>194460305924.4149</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>43344</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>4298066580000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>0.04503400968411345</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>193559171986.6844</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>43374</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>4337116710000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>0.04362771424370703</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>189218488465.4868</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>43405</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>4396797950000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>0.04356394926368213</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>191541882816.4616</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>43435</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>4373594970000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>0.04458767988899451</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>195008452486.4765</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>43466</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>4411934620000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>0.04444736809354571</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>196098882059.7977</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>43497</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>4457696450000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>0.04436539516922958</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>197767464548.7219</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>43525</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>4464312880000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.04344526136017555</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>193953239865.1981</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>43556</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>4512969740000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.04375161334074194</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>197449707082.9487</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>43586</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>4577407590000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>0.04321857361419643</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>197829026890.5965</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>43617</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>4566459490000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>0.04472023912806267</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>204213160361.4111</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>43647</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>4592275590000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.04312207255029975</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>198028441162.9506</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>43678</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>4639859400000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.04232044703934617</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>196360924007.7125</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>43709</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>4641345140000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.04225410435242627</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>196115881881.1865</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>43739</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>4681223420000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.04370755450113509</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>204604827761.64</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>43770</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>4725508480000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>0.04313419998567945</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>203831027810.3441</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>43800</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>4680322510000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>0.04410637398853057</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>206432055012.9981</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>43831</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>4759123950000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>0.04399003713638935</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>209354039297.18</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>43862</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>4809150480000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.04331535745998744</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>208310072120.0702</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>43891</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>4932508490000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>0.04031443647875974</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>198851300201.0481</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>43922</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>4958595660000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>0.04036895611127461</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>200173330572.0967</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>43952</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>5004666910000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>0.04121819552510538</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>206283339234.405</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>43983</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>5020790900000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>0.04211998298352687</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>211475627271.8466</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>44013</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>5059232680000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>0.04488479419873012</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>227082617645.2899</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>44044</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>5094308060000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>0.04544954600448496</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>231533988533.9885</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>44075</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>5178041490000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>0.04328762592911478</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>224145123064.5561</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>44105</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>5214187690000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>0.0427220800526336</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>222760943901.6367</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>44136</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>5235568230000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>0.0454573348819132</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>237994978328.2156</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>44166</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>5179738620000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>0.04654377558453164</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>241084591915.8116</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>44197</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>5290478980000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>0.0466059236128912</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>246567659217.4866</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>44228</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>5390398340000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>0.04614685313071788</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>248749920512.0455</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>44256</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>5449356120000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>0.04490406247053171</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>244698227636.6543</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>44287</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>5471474170000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>0.04646084512277279</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>254209314005.6218</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>44317</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>5507491430000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>0.04807426512476474</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>264768603178.1897</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>44348</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>5533467040000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>0.04647963262498373</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>257193515161.6562</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>44378</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>5564521500000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>0.04655688553058555</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>259066790507.9822</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>44409</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>5585492370000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>0.04647444834829811</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>259582676649.3782</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>44440</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>5607639380000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>0.04568337764620965</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>256175907500.2969</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>44470</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>5617130550000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>0.04506625866680487</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>253143058331.5119</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>44501</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>5647837280000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>0.04443605096815046</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>250967585233.9003</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>44531</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>5542014840000</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>0.0456974690456769</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>253256051601.582</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>44562</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>5630383690000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>0.04615750324833429</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>259884453460.5434</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>44593</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>5704249840000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>0.04458006691468044</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>254295839565.2552</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>44621</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>5739159050000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>0.04532536815530284</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>260129496843.0881</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>44652</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>5742427260000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>0.04284086332907781</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>246010541422.8308</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>44682</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>5825723830000</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>0.04342473516339642</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>252980514452.8375</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>44713</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>5801917230000</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>0.0423753053670443</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>245858014335.5658</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>44743</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>5833040250000</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>0.04154695948963715</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>242345086968.173</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>44774</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>5855415460000</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>0.04101916210157575</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>240184235925.8127</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>44805</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>5887405600000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>0.03985937612104495</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>234668314187.5463</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>44835</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>5915934540000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>0.04037255796490009</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>238841410132.7046</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>44866</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>5940210650000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>0.04275185115515502</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>253955001539.0667</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>44896</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>5817095330000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>0.04434186692562317</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>257940867016.524</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>44927</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>5950864520000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>0.04569318851638786</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>271913974347.8439</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>44958</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>6045092150000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>0.04501229961086867</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>272103499031.1103</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>44986</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>6077524080000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>0.04620292787953972</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>280799406754.406</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>45017</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>6141246740000</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>0.04682075376731491</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>287537801437.8654</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>45047</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>6224248910000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>0.04506372010022171</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>280487810714.3501</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>45078</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>6243090940000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>0.04592443593311565</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>286710429898.6448</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>45108</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>6355692770000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>0.04603977376055174</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>292614657222.3744</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>45139</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>6337051350000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>0.04504991530615922</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>285483626608.2819</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>45170</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>6359425540000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>0.04329632219391124</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>275339737148.028</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/Czech Republic.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Czech Republic.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D262"/>
+  <dimension ref="A1:D263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3874,13 +3874,27 @@
         <v>45170</v>
       </c>
       <c r="B262">
-        <v>6359425540000</v>
+        <v>6359439990000</v>
       </c>
       <c r="C262">
         <v>0.04329632219391124</v>
       </c>
       <c r="D262">
-        <v>275339737148.028</v>
+        <v>275340362779.8837</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B263">
+        <v>6385550740000</v>
+      </c>
+      <c r="C263">
+        <v>0.04303574118305253</v>
+      </c>
+      <c r="D263">
+        <v>274806908957.8895</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Czech Republic.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Czech Republic.xlsx
@@ -1,57 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Czech Republic_M2 (CZK)</t>
-  </si>
-  <si>
-    <t>Czech Republic_FX (USD)</t>
-  </si>
-  <si>
-    <t>Czech Republic_M2 (USD)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,3519 +426,3603 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D263"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Czech Republic_M2 (CZK)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Czech Republic_FX (USD)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Czech Republic_M2 (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>37257</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>1338996240000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>37288</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>1343323750000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>37316</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>1331051750000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>37347</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>1351715080000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>37377</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>1369800750000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>37408</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>1326829940000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>37438</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>1349083360000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>37469</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>1376758480000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>37500</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>1369943190000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>37530</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>1405644210000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>37561</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>1413037240000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>37591</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>1410235190000</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>37622</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>1414895380000</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>37653</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>1417120580000</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>37681</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>1410427990000</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>37712</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>1437691540000</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>37742</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>1433220720000</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>37773</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>1422692810000</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>37803</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>1463791450000</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>37834</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>1482925200000</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>37865</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>1476599640000</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>37895</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>1484453290000</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>37926</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>1495210990000</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>37956</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>1511507440000</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>37987</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>1504296110000</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>38018</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>1510599540000</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>38047</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>1511369020000</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>38078</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>1543667730000</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>38108</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>1548622640000</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>38139</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>1553886080000</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>0.03821753420469311</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>59385694412.5965</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>38169</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>1566887940000</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>0.03794634386976815</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>59457668576.63264</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>38200</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>1581312420000</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>0.03826081633277728</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>60502304066.35957</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>38231</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>1582199580000</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>0.03941042011507843</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>62355150153.70064</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>38261</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>1596899450000</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>0.0403520311194864</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>64438136301.09071</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>38292</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>1590256060000</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>0.04288091113359977</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>68191628788.5285</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>38322</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>1578889780000</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>0.04460959909353295</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>70433640098.67644</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>38353</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>1571843320000</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>0.04332323901864199</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>68097343852.21577</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>38384</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>1594197220000</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>0.04455553624815652</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>71030312022.42035</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>38412</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>1588817230000</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>0.04314119682308226</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>68543476835.33436</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>38443</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>1626076360000</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>0.04213418051125615</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>68513394877.32634</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>38473</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>1651245200000</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>0.04053161263127176</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>66927630805.64686</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>38504</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>1656472660000</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>0.04023950553695596</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>66655640773.88617</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>38534</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>1671234850000</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>0.04017500231006263</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>67141863959.40717</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>38565</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>1674838950000</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>0.04199439794731383</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>70333853363.96124</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>38596</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>1672753690000</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>0.04060435522314124</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>67921085029.58028</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>38626</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>1701737620000</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>0.04045258350424549</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>68839683175.36598</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>38657</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>1732929220000</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>0.04073170433670456</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>70585160625.47606</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>38687</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>1746148190000</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>0.04072871822650869</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>71118377612.23816</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>38718</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>1765945610000</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>0.04285959197668438</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>75687708297.617</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>38749</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>1781266700000</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>0.04210934111513957</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>75007967087.33899</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>38777</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>1782170090000</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>0.04256713902001932</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>75861881978.35034</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>38808</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>1831666200000</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>0.04432977808513091</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>81197356172.035</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>38838</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>1836479050000</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>0.04530873371151024</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>83208540243.2173</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>38869</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>1853332430000</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>0.04487283039865023</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>83164271803.7083</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>38899</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>1870437220000</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>0.04480768541420225</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>83809962540.77501</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>38930</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>1902606860000</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>0.04534633261534974</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>86276243509.80615</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>38961</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>1890417570000</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>0.04477478284230321</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>84643036178.02454</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>38991</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>1930600830000</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>0.04535126824821656</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>87555196121.55954</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>39022</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>1946581850000</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>0.04749398013801751</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>92450919720.92537</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>39052</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>1984629210000</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>0.04801782421634911</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>95297576540.41179</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>39083</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>2008484650000</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>0.04636670499647613</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>93126815256.50061</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>39114</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>2034778430000</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>0.04685486704931475</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>95339272812.46339</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>39142</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>2040597170000</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>0.04768353392206603</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>97302884376.96695</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>39173</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>2108093720000</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>0.04840573298139138</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>102043821710.0681</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>39203</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>2135635990000</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>0.04756133986001746</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>101573709137.6749</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>39234</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>2138669310000</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>0.04710728306860611</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>100746900576.3105</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>39264</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>2162789270000</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>0.04874520103495811</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>105425597762.4003</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>39295</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>2190246640000</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>0.0492199135895197</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>107803750360.5359</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>39326</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>2171105020000</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>0.05178580768511743</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>112432427029.913</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>39356</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>2218763700000</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>0.05373397384230154</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>119222990618.0482</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>39387</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>2260273180000</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>0.05577170188463735</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>126059281972.8013</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>39417</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>2308662830000</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>0.05502217668831423</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>127027654146.0036</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>39448</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>2315205460000</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>0.05712653527563553</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>132259666381.034</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>39479</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>2332657220000</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>0.06045766452041957</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>141027007647.8946</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>39508</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>2332645010000</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>0.06257430698955009</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>145963644953.3821</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>39539</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>2371463610000</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>0.06188501763723003</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>146758067330.8992</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>39569</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>2398932080000</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>0.0621272365805169</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>149039020874.7515</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>39600</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>2382676490000</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>0.06595435958316845</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>157147901991.8217</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>39630</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>2432765160000</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>0.06513597134017261</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>158460521739.1304</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>39661</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>2468169940000</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>0.05916634618229152</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>146032597106.7657</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>39692</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>2470692550000</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>0.05753243390961655</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>142144955843.857</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>39722</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>2510264130000</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>0.0529145324471913</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>132829452757.9054</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="2">
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>39753</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>2548374000000</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>0.05002401152553225</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>127479890347.3667</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="2">
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>39783</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>2633893500000</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>0.05203048986706209</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>137042769062.6707</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="2">
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>39814</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>2646649570000</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>0.04583434550846331</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>121307450831.2059</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="2">
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>39845</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>2660287780000</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>0.04506351702724991</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>119881923671.4149</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="2">
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>39873</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>2630718630000</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>0.0484202881007142</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>127380153976.5162</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="2">
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>39904</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>2655169050000</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>0.04946112108577053</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>131327637885.2403</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="2">
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>39934</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>2677539170000</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>0.0525226635293129</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>140631488912.4657</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="2">
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>39965</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>2623407730000</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>0.05409891228726955</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>141923504679.0149</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="2">
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>39995</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>2607629040000</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>0.0557911180540058</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>145482539611.6938</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="2">
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>40026</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>2602237950000</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>0.05628504095581005</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>146467069592.5132</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="2">
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>40057</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>2564930980000</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>0.05798244291628495</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>148720964132.0608</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="2">
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>40087</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>2593463140000</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>0.05548786036590914</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>143905720576.4523</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="2">
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>40118</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>2607424980000</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>0.05737303777039195</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>149595891861.0035</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="2">
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>40148</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>2649474870000</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>0.05416501914733427</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>143508857063.931</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="2">
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>40179</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>2613108220000</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>0.05287972401014444</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>138180441482.2398</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="2">
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>2604635960000</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>0.05256352301756673</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>136908842235.842</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="2">
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>40238</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>2615430160000</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>0.05319856363878175</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>139137127809.5491</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="2">
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>40269</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>2658356430000</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>0.05188366230169415</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>137925267291.6573</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="2">
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>2706023290000</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>0.04823517154356408</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>130525497594.0296</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="2">
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>40330</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>2699720950000</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>0.04761040973042509</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>128534820587.3125</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="2">
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>40360</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>2688201720000</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>0.05263723052369833</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>141499493629.8424</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="2">
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>40391</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>2676339180000</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>0.05120089130511584</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>137030951450.8029</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="2">
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>40422</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>2672467780000</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>0.05542588976566488</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>148123904576.5711</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="2">
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>2674346810000</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>0.05662482092400383</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>151434409204.9309</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="2">
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>2673542390000</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>0.05204140205782112</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>139134894436.618</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="2">
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>2707985520000</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>0.05343307507347048</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>144695993588.031</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="2">
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>40544</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>2684440450000</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>0.05661199834692964</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>151971538317.8311</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="2">
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>2687563160000</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>0.05668114870015956</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>152334167113.0307</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="2">
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>2673812820000</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>0.05769980866743446</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="n">
         <v>154278488126.5334</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="2">
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>2704409450000</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>0.06123773714313709</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>165611915026.516</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="2">
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>40664</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>2719433420000</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>0.05861650969165371</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="n">
         <v>159403695419.237</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="2">
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>2690130540000</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>0.05956429906519789</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>160235740008.9823</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="2">
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>2717102700000</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>0.05953940317702255</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>161774673128.6766</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="2">
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>2707950330000</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>0.05956696011336784</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>161304369296.0913</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="2">
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>40787</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>2739667530000</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>0.05423731755244342</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="n">
         <v>148592217812.7283</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="2">
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>2745291100000</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>0.05569947681481428</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>152911277974.366</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="2">
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>2766283370000</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>0.0531697124050256</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="n">
         <v>147082491213.705</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="2">
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>2818680190000</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>0.05066487515668113</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="n">
         <v>142808079932.9603</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="2">
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>2810082710000</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>0.05167133517179943</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>145200725568.8885</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="2">
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>2836929050000</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>0.05351780564152597</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="n">
         <v>151826217516.6989</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="2">
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>40969</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>2830755990000</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>0.05378773209406398</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="n">
         <v>152259944813.7869</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="2">
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>2853190610000</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>0.05307748569827148</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="n">
         <v>151440183796.7175</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="2">
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>2873941190000</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>0.04808059846882526</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="n">
         <v>138180812379.4078</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="2">
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>2869554030000</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>0.04962229986458074</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="n">
         <v>142393870554.2761</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="2">
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>2884564010000</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>0.04857757571665283</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="n">
         <v>140125126605.3067</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="2">
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>41122</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>2877996940000</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>0.05059732674083897</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="n">
         <v>145618951532.3147</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="2">
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>41153</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>2868038240000</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>0.05116788130688909</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="n">
         <v>146751440247.9391</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="2">
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>41183</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>2901251280000</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>0.0516481705959734</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="n">
         <v>149844321051.2262</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="2">
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>41214</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>2911366800000</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>0.0514371011695768</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="n">
         <v>149752268633.3471</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="2">
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>2949574040000</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>0.05260339460226048</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="n">
         <v>155157607134.7036</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="2">
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>41275</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>2947320670000</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>0.05290070431997732</v>
       </c>
-      <c r="D134">
+      <c r="D134" t="n">
         <v>155915339299.8274</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="2">
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>2964974100000</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>0.05087510264051958</v>
       </c>
-      <c r="D135">
+      <c r="D135" t="n">
         <v>150843361663.9822</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="2">
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>2968084680000</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>0.04981017342906185</v>
       </c>
-      <c r="D136">
+      <c r="D136" t="n">
         <v>147840812662.9415</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="2">
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>2983255360000</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>0.05102269897832148</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="n">
         <v>152213740208.7441</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="2">
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="n">
         <v>2983005970000</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>0.05052224848256427</v>
       </c>
-      <c r="D138">
+      <c r="D138" t="n">
         <v>150708168841.3127</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="2">
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="n">
         <v>2981373150000</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>0.05002886665606054</v>
       </c>
-      <c r="D139">
+      <c r="D139" t="n">
         <v>149154719773.3092</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="2">
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>41456</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="n">
         <v>3026742140000</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>0.05128223537212698</v>
       </c>
-      <c r="D140">
+      <c r="D140" t="n">
         <v>155218102834.2153</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="2">
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="n">
         <v>3011787370000</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="n">
         <v>0.0513465109018912</v>
       </c>
-      <c r="D141">
+      <c r="D141" t="n">
         <v>154644773027.8832</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="2">
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="n">
         <v>3012468260000</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="n">
         <v>0.05265635514815918</v>
       </c>
-      <c r="D142">
+      <c r="D142" t="n">
         <v>158625598571.1171</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="2">
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>41548</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="n">
         <v>3027604710000</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="n">
         <v>0.05266567304096863</v>
       </c>
-      <c r="D143">
+      <c r="D143" t="n">
         <v>159450839754.1566</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="2">
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="n">
         <v>3070322380000</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="n">
         <v>0.04966204975144144</v>
       </c>
-      <c r="D144">
+      <c r="D144" t="n">
         <v>152478502788.5241</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="2">
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="n">
         <v>3097920160000</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="n">
         <v>0.05043256006770067</v>
       </c>
-      <c r="D145">
+      <c r="D145" t="n">
         <v>156236044554.1409</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="2">
+    <row r="146">
+      <c r="A146" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="n">
         <v>3088469210000</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="n">
         <v>0.04899530233041256</v>
       </c>
-      <c r="D146">
+      <c r="D146" t="n">
         <v>151320482682.1205</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="2">
+    <row r="147">
+      <c r="A147" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="B147">
+      <c r="B147" t="n">
         <v>3116626090000</v>
       </c>
-      <c r="C147">
+      <c r="C147" t="n">
         <v>0.05051770544540451</v>
       </c>
-      <c r="D147">
+      <c r="D147" t="n">
         <v>157444798798.0828</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="2">
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="n">
         <v>3126444620000</v>
       </c>
-      <c r="C148">
+      <c r="C148" t="n">
         <v>0.05016474100947511</v>
       </c>
-      <c r="D148">
+      <c r="D148" t="n">
         <v>156837284642.7668</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="2">
+    <row r="149">
+      <c r="A149" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="B149">
+      <c r="B149" t="n">
         <v>3148018390000</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="n">
         <v>0.05052212085800707</v>
       </c>
-      <c r="D149">
+      <c r="D149" t="n">
         <v>159044565562.8088</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="2">
+    <row r="150">
+      <c r="A150" s="2" t="n">
         <v>41760</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="n">
         <v>3165959620000</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="n">
         <v>0.04959854934162886</v>
       </c>
-      <c r="D150">
+      <c r="D150" t="n">
         <v>157027004426.1745</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="2">
+    <row r="151">
+      <c r="A151" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="n">
         <v>3142213600000</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="n">
         <v>0.04988496527008719</v>
       </c>
-      <c r="D151">
+      <c r="D151" t="n">
         <v>156749216307.1956</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="2">
+    <row r="152">
+      <c r="A152" s="2" t="n">
         <v>41821</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="n">
         <v>3167890400000</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="n">
         <v>0.04838177477896786</v>
       </c>
-      <c r="D152">
+      <c r="D152" t="n">
         <v>153268159857.2544</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="2">
+    <row r="153">
+      <c r="A153" s="2" t="n">
         <v>41852</v>
       </c>
-      <c r="B153">
+      <c r="B153" t="n">
         <v>3169130240000</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="n">
         <v>0.04735949503412015</v>
       </c>
-      <c r="D153">
+      <c r="D153" t="n">
         <v>150088407863.76</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="2">
+    <row r="154">
+      <c r="A154" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B154">
+      <c r="B154" t="n">
         <v>3171521370000</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="n">
         <v>0.04593426622765757</v>
       </c>
-      <c r="D154">
+      <c r="D154" t="n">
         <v>145681506956.2852</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="2">
+    <row r="155">
+      <c r="A155" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="n">
         <v>3202006490000</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="n">
         <v>0.04505328451960133</v>
       </c>
-      <c r="D155">
+      <c r="D155" t="n">
         <v>144260909427.58</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="2">
+    <row r="156">
+      <c r="A156" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="B156">
+      <c r="B156" t="n">
         <v>3238165300000</v>
       </c>
-      <c r="C156">
+      <c r="C156" t="n">
         <v>0.04508110993299144</v>
       </c>
-      <c r="D156">
+      <c r="D156" t="n">
         <v>145980085870.4982</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="2">
+    <row r="157">
+      <c r="A157" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B157">
+      <c r="B157" t="n">
         <v>3301158380000</v>
       </c>
-      <c r="C157">
+      <c r="C157" t="n">
         <v>0.04367437781481365</v>
       </c>
-      <c r="D157">
+      <c r="D157" t="n">
         <v>144176038314.6582</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="2">
+    <row r="158">
+      <c r="A158" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="B158">
+      <c r="B158" t="n">
         <v>3292105450000</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="n">
         <v>0.04067274344568907</v>
       </c>
-      <c r="D158">
+      <c r="D158" t="n">
         <v>133898960364.0048</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="2">
+    <row r="159">
+      <c r="A159" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="B159">
+      <c r="B159" t="n">
         <v>3330004730000</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="n">
         <v>0.04070209485541802</v>
       </c>
-      <c r="D159">
+      <c r="D159" t="n">
         <v>135538168389.4507</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="2">
+    <row r="160">
+      <c r="A160" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B160">
+      <c r="B160" t="n">
         <v>3332309480000</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>0.03894414630536884</v>
       </c>
-      <c r="D160">
+      <c r="D160" t="n">
         <v>129773947923.8876</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="2">
+    <row r="161">
+      <c r="A161" s="2" t="n">
         <v>42095</v>
       </c>
-      <c r="B161">
+      <c r="B161" t="n">
         <v>3368176040000</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="n">
         <v>0.04086750265230092</v>
       </c>
-      <c r="D161">
+      <c r="D161" t="n">
         <v>137648943248.1164</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="2">
+    <row r="162">
+      <c r="A162" s="2" t="n">
         <v>42125</v>
       </c>
-      <c r="B162">
+      <c r="B162" t="n">
         <v>3390052450000</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>0.04008048160706699</v>
       </c>
-      <c r="D162">
+      <c r="D162" t="n">
         <v>135874934869.2174</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="2">
+    <row r="163">
+      <c r="A163" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B163">
+      <c r="B163" t="n">
         <v>3377484510000</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="n">
         <v>0.04083932990827487</v>
       </c>
-      <c r="D163">
+      <c r="D163" t="n">
         <v>137934204163.9781</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="2">
+    <row r="164">
+      <c r="A164" s="2" t="n">
         <v>42186</v>
       </c>
-      <c r="B164">
+      <c r="B164" t="n">
         <v>3419180560000</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="n">
         <v>0.04057048594516655</v>
       </c>
-      <c r="D164">
+      <c r="D164" t="n">
         <v>138717816853.4667</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="2">
+    <row r="165">
+      <c r="A165" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B165">
+      <c r="B165" t="n">
         <v>3430151430000</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>0.04146236088341364</v>
       </c>
-      <c r="D165">
+      <c r="D165" t="n">
         <v>142222176475.4174</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="2">
+    <row r="166">
+      <c r="A166" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B166">
+      <c r="B166" t="n">
         <v>3466902180000</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="n">
         <v>0.04110591349671563</v>
       </c>
-      <c r="D166">
+      <c r="D166" t="n">
         <v>142510181112.6548</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="2">
+    <row r="167">
+      <c r="A167" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B167">
+      <c r="B167" t="n">
         <v>3502753750000</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="n">
         <v>0.0406197270516821</v>
       </c>
-      <c r="D167">
+      <c r="D167" t="n">
         <v>142280901254.2559</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="2">
+    <row r="168">
+      <c r="A168" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B168">
+      <c r="B168" t="n">
         <v>3556384960000</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="n">
         <v>0.03907973477365604</v>
       </c>
-      <c r="D168">
+      <c r="D168" t="n">
         <v>138982580989.8193</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="2">
+    <row r="169">
+      <c r="A169" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B169">
+      <c r="B169" t="n">
         <v>3577992780000</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="n">
         <v>0.04022749452704937</v>
       </c>
-      <c r="D169">
+      <c r="D169" t="n">
         <v>143933684975.2722</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="2">
+    <row r="170">
+      <c r="A170" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B170">
+      <c r="B170" t="n">
         <v>3599727010000</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="n">
         <v>0.04008835473383337</v>
       </c>
-      <c r="D170">
+      <c r="D170" t="n">
         <v>144307133321.8413</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="2">
+    <row r="171">
+      <c r="A171" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B171">
+      <c r="B171" t="n">
         <v>3622849250000</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="n">
         <v>0.04016683697405544</v>
       </c>
-      <c r="D171">
+      <c r="D171" t="n">
         <v>145518395206.329</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="2">
+    <row r="172">
+      <c r="A172" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B172">
+      <c r="B172" t="n">
         <v>3632237780000</v>
       </c>
-      <c r="C172">
+      <c r="C172" t="n">
         <v>0.04208509775105655</v>
       </c>
-      <c r="D172">
+      <c r="D172" t="n">
         <v>152863082026.3806</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="2">
+    <row r="173">
+      <c r="A173" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B173">
+      <c r="B173" t="n">
         <v>3661713540000</v>
       </c>
-      <c r="C173">
+      <c r="C173" t="n">
         <v>0.04233979890289113</v>
       </c>
-      <c r="D173">
+      <c r="D173" t="n">
         <v>155036214923.5936</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="2">
+    <row r="174">
+      <c r="A174" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B174">
+      <c r="B174" t="n">
         <v>3702794260000</v>
       </c>
-      <c r="C174">
+      <c r="C174" t="n">
         <v>0.04119511986132075</v>
       </c>
-      <c r="D174">
+      <c r="D174" t="n">
         <v>152537053362.5105</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="2">
+    <row r="175">
+      <c r="A175" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B175">
+      <c r="B175" t="n">
         <v>3690058260000</v>
       </c>
-      <c r="C175">
+      <c r="C175" t="n">
         <v>0.04100959050283499</v>
       </c>
-      <c r="D175">
+      <c r="D175" t="n">
         <v>151327778174.2038</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="2">
+    <row r="176">
+      <c r="A176" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B176">
+      <c r="B176" t="n">
         <v>3725644040000</v>
       </c>
-      <c r="C176">
+      <c r="C176" t="n">
         <v>0.04133081931736365</v>
       </c>
-      <c r="D176">
+      <c r="D176" t="n">
         <v>153983920658.0528</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="2">
+    <row r="177">
+      <c r="A177" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B177">
+      <c r="B177" t="n">
         <v>3744791890000</v>
       </c>
-      <c r="C177">
+      <c r="C177" t="n">
         <v>0.04128662329919756</v>
       </c>
-      <c r="D177">
+      <c r="D177" t="n">
         <v>154609812096.3201</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="2">
+    <row r="178">
+      <c r="A178" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B178">
+      <c r="B178" t="n">
         <v>3758738350000</v>
       </c>
-      <c r="C178">
+      <c r="C178" t="n">
         <v>0.04160521230099707</v>
       </c>
-      <c r="D178">
+      <c r="D178" t="n">
         <v>156383107035.6494</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="2">
+    <row r="179">
+      <c r="A179" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B179">
+      <c r="B179" t="n">
         <v>3783983090000</v>
       </c>
-      <c r="C179">
+      <c r="C179" t="n">
         <v>0.0406371911573472</v>
       </c>
-      <c r="D179">
+      <c r="D179" t="n">
         <v>153770444164.4993</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="2">
+    <row r="180">
+      <c r="A180" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B180">
+      <c r="B180" t="n">
         <v>3849082360000</v>
       </c>
-      <c r="C180">
+      <c r="C180" t="n">
         <v>0.03914828980695978</v>
       </c>
-      <c r="D180">
+      <c r="D180" t="n">
         <v>150684991720.1367</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="2">
+    <row r="181">
+      <c r="A181" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B181">
+      <c r="B181" t="n">
         <v>3812905510000</v>
       </c>
-      <c r="C181">
+      <c r="C181" t="n">
         <v>0.03892974349192013</v>
       </c>
-      <c r="D181">
+      <c r="D181" t="n">
         <v>148435433463.2289</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="2">
+    <row r="182">
+      <c r="A182" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B182">
+      <c r="B182" t="n">
         <v>3891072340000</v>
       </c>
-      <c r="C182">
+      <c r="C182" t="n">
         <v>0.03995930544333651</v>
       </c>
-      <c r="D182">
+      <c r="D182" t="n">
         <v>155484548136.1781</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="2">
+    <row r="183">
+      <c r="A183" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B183">
+      <c r="B183" t="n">
         <v>3945119310000</v>
       </c>
-      <c r="C183">
+      <c r="C183" t="n">
         <v>0.039139218984713</v>
       </c>
-      <c r="D183">
+      <c r="D183" t="n">
         <v>154408888594.9099</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="2">
+    <row r="184">
+      <c r="A184" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B184">
+      <c r="B184" t="n">
         <v>4017463390000</v>
       </c>
-      <c r="C184">
+      <c r="C184" t="n">
         <v>0.0394154530648668</v>
       </c>
-      <c r="D184">
+      <c r="D184" t="n">
         <v>158350139688.3657</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="2">
+    <row r="185">
+      <c r="A185" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B185">
+      <c r="B185" t="n">
         <v>4081978010000</v>
       </c>
-      <c r="C185">
+      <c r="C185" t="n">
         <v>0.04059896464520361</v>
       </c>
-      <c r="D185">
+      <c r="D185" t="n">
         <v>165724080910.4886</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="2">
+    <row r="186">
+      <c r="A186" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B186">
+      <c r="B186" t="n">
         <v>4094146990000</v>
       </c>
-      <c r="C186">
+      <c r="C186" t="n">
         <v>0.042664591460938</v>
       </c>
-      <c r="D186">
+      <c r="D186" t="n">
         <v>174675108709.379</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="2">
+    <row r="187">
+      <c r="A187" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B187">
+      <c r="B187" t="n">
         <v>4060060440000</v>
       </c>
-      <c r="C187">
+      <c r="C187" t="n">
         <v>0.04373559732110719</v>
       </c>
-      <c r="D187">
+      <c r="D187" t="n">
         <v>177569168503.1973</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="2">
+    <row r="188">
+      <c r="A188" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B188">
+      <c r="B188" t="n">
         <v>4094654780000</v>
       </c>
-      <c r="C188">
+      <c r="C188" t="n">
         <v>0.0454016319162576</v>
       </c>
-      <c r="D188">
+      <c r="D188" t="n">
         <v>185904009145.7047</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="2">
+    <row r="189">
+      <c r="A189" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B189">
+      <c r="B189" t="n">
         <v>4121927630000</v>
       </c>
-      <c r="C189">
+      <c r="C189" t="n">
         <v>0.04561163607570254</v>
       </c>
-      <c r="D189">
+      <c r="D189" t="n">
         <v>188007862989.9431</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="2">
+    <row r="190">
+      <c r="A190" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B190">
+      <c r="B190" t="n">
         <v>4127941020000</v>
       </c>
-      <c r="C190">
+      <c r="C190" t="n">
         <v>0.04547945579283198</v>
       </c>
-      <c r="D190">
+      <c r="D190" t="n">
         <v>187736511134.5078</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="2">
+    <row r="191">
+      <c r="A191" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B191">
+      <c r="B191" t="n">
         <v>4109347610000</v>
       </c>
-      <c r="C191">
+      <c r="C191" t="n">
         <v>0.04538836097181927</v>
       </c>
-      <c r="D191">
+      <c r="D191" t="n">
         <v>186516552681.3628</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="2">
+    <row r="192">
+      <c r="A192" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B192">
+      <c r="B192" t="n">
         <v>4140657640000</v>
       </c>
-      <c r="C192">
+      <c r="C192" t="n">
         <v>0.04665097327925552</v>
       </c>
-      <c r="D192">
+      <c r="D192" t="n">
         <v>193165708922.1852</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="2">
+    <row r="193">
+      <c r="A193" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B193">
+      <c r="B193" t="n">
         <v>4139907940000</v>
       </c>
-      <c r="C193">
+      <c r="C193" t="n">
         <v>0.04698466514498998</v>
       </c>
-      <c r="D193">
+      <c r="D193" t="n">
         <v>194512188291.9853</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="2">
+    <row r="194">
+      <c r="A194" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B194">
+      <c r="B194" t="n">
         <v>4162727150000</v>
       </c>
-      <c r="C194">
+      <c r="C194" t="n">
         <v>0.04912011144370884</v>
       </c>
-      <c r="D194">
+      <c r="D194" t="n">
         <v>204473621517.7525</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="2">
+    <row r="195">
+      <c r="A195" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B195">
+      <c r="B195" t="n">
         <v>4204413050000</v>
       </c>
-      <c r="C195">
+      <c r="C195" t="n">
         <v>0.04799141529563192</v>
       </c>
-      <c r="D195">
+      <c r="D195" t="n">
         <v>201775732756.9244</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="2">
+    <row r="196">
+      <c r="A196" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B196">
+      <c r="B196" t="n">
         <v>4214303570000</v>
       </c>
-      <c r="C196">
+      <c r="C196" t="n">
         <v>0.04863836886366179</v>
       </c>
-      <c r="D196">
+      <c r="D196" t="n">
         <v>204976851541.1067</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="2">
+    <row r="197">
+      <c r="A197" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B197">
+      <c r="B197" t="n">
         <v>4241318890000</v>
       </c>
-      <c r="C197">
+      <c r="C197" t="n">
         <v>0.04719478894018438</v>
       </c>
-      <c r="D197">
+      <c r="D197" t="n">
         <v>200168149841.5671</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="2">
+    <row r="198">
+      <c r="A198" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B198">
+      <c r="B198" t="n">
         <v>4298226870000</v>
       </c>
-      <c r="C198">
+      <c r="C198" t="n">
         <v>0.04527855594007112</v>
       </c>
-      <c r="D198">
+      <c r="D198" t="n">
         <v>194617505776.4118</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="2">
+    <row r="199">
+      <c r="A199" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B199">
+      <c r="B199" t="n">
         <v>4274973110000</v>
       </c>
-      <c r="C199">
+      <c r="C199" t="n">
         <v>0.04498463999467382</v>
       </c>
-      <c r="D199">
+      <c r="D199" t="n">
         <v>192308126340.2611</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="2">
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B200">
+      <c r="B200" t="n">
         <v>4288848410000</v>
       </c>
-      <c r="C200">
+      <c r="C200" t="n">
         <v>0.04572109946442304</v>
       </c>
-      <c r="D200">
+      <c r="D200" t="n">
         <v>196090864741.4426</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="2">
+    <row r="201">
+      <c r="A201" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B201">
+      <c r="B201" t="n">
         <v>4318593920000</v>
       </c>
-      <c r="C201">
+      <c r="C201" t="n">
         <v>0.04502861568526798</v>
       </c>
-      <c r="D201">
+      <c r="D201" t="n">
         <v>194460305924.4149</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="2">
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B202">
+      <c r="B202" t="n">
         <v>4298066580000</v>
       </c>
-      <c r="C202">
+      <c r="C202" t="n">
         <v>0.04503400968411345</v>
       </c>
-      <c r="D202">
+      <c r="D202" t="n">
         <v>193559171986.6844</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="2">
+    <row r="203">
+      <c r="A203" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B203">
+      <c r="B203" t="n">
         <v>4337116710000</v>
       </c>
-      <c r="C203">
+      <c r="C203" t="n">
         <v>0.04362771424370703</v>
       </c>
-      <c r="D203">
+      <c r="D203" t="n">
         <v>189218488465.4868</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="2">
+    <row r="204">
+      <c r="A204" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B204">
+      <c r="B204" t="n">
         <v>4396797950000</v>
       </c>
-      <c r="C204">
+      <c r="C204" t="n">
         <v>0.04356394926368213</v>
       </c>
-      <c r="D204">
+      <c r="D204" t="n">
         <v>191541882816.4616</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="2">
+    <row r="205">
+      <c r="A205" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B205">
+      <c r="B205" t="n">
         <v>4373594970000</v>
       </c>
-      <c r="C205">
+      <c r="C205" t="n">
         <v>0.04458767988899451</v>
       </c>
-      <c r="D205">
+      <c r="D205" t="n">
         <v>195008452486.4765</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="2">
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B206">
+      <c r="B206" t="n">
         <v>4411934620000</v>
       </c>
-      <c r="C206">
+      <c r="C206" t="n">
         <v>0.04444736809354571</v>
       </c>
-      <c r="D206">
+      <c r="D206" t="n">
         <v>196098882059.7977</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="2">
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B207">
+      <c r="B207" t="n">
         <v>4457696450000</v>
       </c>
-      <c r="C207">
+      <c r="C207" t="n">
         <v>0.04436539516922958</v>
       </c>
-      <c r="D207">
+      <c r="D207" t="n">
         <v>197767464548.7219</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="2">
+    <row r="208">
+      <c r="A208" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B208">
+      <c r="B208" t="n">
         <v>4464312880000</v>
       </c>
-      <c r="C208">
+      <c r="C208" t="n">
         <v>0.04344526136017555</v>
       </c>
-      <c r="D208">
+      <c r="D208" t="n">
         <v>193953239865.1981</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="2">
+    <row r="209">
+      <c r="A209" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B209">
+      <c r="B209" t="n">
         <v>4512969740000</v>
       </c>
-      <c r="C209">
+      <c r="C209" t="n">
         <v>0.04375161334074194</v>
       </c>
-      <c r="D209">
+      <c r="D209" t="n">
         <v>197449707082.9487</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="2">
+    <row r="210">
+      <c r="A210" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B210">
+      <c r="B210" t="n">
         <v>4577407590000</v>
       </c>
-      <c r="C210">
+      <c r="C210" t="n">
         <v>0.04321857361419643</v>
       </c>
-      <c r="D210">
+      <c r="D210" t="n">
         <v>197829026890.5965</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="2">
+    <row r="211">
+      <c r="A211" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B211">
+      <c r="B211" t="n">
         <v>4566459490000</v>
       </c>
-      <c r="C211">
+      <c r="C211" t="n">
         <v>0.04472023912806267</v>
       </c>
-      <c r="D211">
+      <c r="D211" t="n">
         <v>204213160361.4111</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="2">
+    <row r="212">
+      <c r="A212" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B212">
+      <c r="B212" t="n">
         <v>4592275590000</v>
       </c>
-      <c r="C212">
+      <c r="C212" t="n">
         <v>0.04312207255029975</v>
       </c>
-      <c r="D212">
+      <c r="D212" t="n">
         <v>198028441162.9506</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="2">
+    <row r="213">
+      <c r="A213" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B213">
+      <c r="B213" t="n">
         <v>4639859400000</v>
       </c>
-      <c r="C213">
+      <c r="C213" t="n">
         <v>0.04232044703934617</v>
       </c>
-      <c r="D213">
+      <c r="D213" t="n">
         <v>196360924007.7125</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="2">
+    <row r="214">
+      <c r="A214" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B214">
+      <c r="B214" t="n">
         <v>4641345140000</v>
       </c>
-      <c r="C214">
+      <c r="C214" t="n">
         <v>0.04225410435242627</v>
       </c>
-      <c r="D214">
+      <c r="D214" t="n">
         <v>196115881881.1865</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="2">
+    <row r="215">
+      <c r="A215" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B215">
+      <c r="B215" t="n">
         <v>4681223420000</v>
       </c>
-      <c r="C215">
+      <c r="C215" t="n">
         <v>0.04370755450113509</v>
       </c>
-      <c r="D215">
+      <c r="D215" t="n">
         <v>204604827761.64</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="2">
+    <row r="216">
+      <c r="A216" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B216">
+      <c r="B216" t="n">
         <v>4725508480000</v>
       </c>
-      <c r="C216">
+      <c r="C216" t="n">
         <v>0.04313419998567945</v>
       </c>
-      <c r="D216">
+      <c r="D216" t="n">
         <v>203831027810.3441</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="2">
+    <row r="217">
+      <c r="A217" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B217">
+      <c r="B217" t="n">
         <v>4680322510000</v>
       </c>
-      <c r="C217">
+      <c r="C217" t="n">
         <v>0.04410637398853057</v>
       </c>
-      <c r="D217">
+      <c r="D217" t="n">
         <v>206432055012.9981</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="2">
+    <row r="218">
+      <c r="A218" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B218">
+      <c r="B218" t="n">
         <v>4759123950000</v>
       </c>
-      <c r="C218">
+      <c r="C218" t="n">
         <v>0.04399003713638935</v>
       </c>
-      <c r="D218">
+      <c r="D218" t="n">
         <v>209354039297.18</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="2">
+    <row r="219">
+      <c r="A219" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B219">
+      <c r="B219" t="n">
         <v>4809150480000</v>
       </c>
-      <c r="C219">
+      <c r="C219" t="n">
         <v>0.04331535745998744</v>
       </c>
-      <c r="D219">
+      <c r="D219" t="n">
         <v>208310072120.0702</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="2">
+    <row r="220">
+      <c r="A220" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B220">
+      <c r="B220" t="n">
         <v>4932508490000</v>
       </c>
-      <c r="C220">
+      <c r="C220" t="n">
         <v>0.04031443647875974</v>
       </c>
-      <c r="D220">
+      <c r="D220" t="n">
         <v>198851300201.0481</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="2">
+    <row r="221">
+      <c r="A221" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B221">
+      <c r="B221" t="n">
         <v>4958595660000</v>
       </c>
-      <c r="C221">
+      <c r="C221" t="n">
         <v>0.04036895611127461</v>
       </c>
-      <c r="D221">
+      <c r="D221" t="n">
         <v>200173330572.0967</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="2">
+    <row r="222">
+      <c r="A222" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B222">
+      <c r="B222" t="n">
         <v>5004666910000</v>
       </c>
-      <c r="C222">
+      <c r="C222" t="n">
         <v>0.04121819552510538</v>
       </c>
-      <c r="D222">
+      <c r="D222" t="n">
         <v>206283339234.405</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="2">
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B223">
+      <c r="B223" t="n">
         <v>5020790900000</v>
       </c>
-      <c r="C223">
+      <c r="C223" t="n">
         <v>0.04211998298352687</v>
       </c>
-      <c r="D223">
+      <c r="D223" t="n">
         <v>211475627271.8466</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="2">
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B224">
+      <c r="B224" t="n">
         <v>5059232680000</v>
       </c>
-      <c r="C224">
+      <c r="C224" t="n">
         <v>0.04488479419873012</v>
       </c>
-      <c r="D224">
+      <c r="D224" t="n">
         <v>227082617645.2899</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="2">
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B225">
+      <c r="B225" t="n">
         <v>5094308060000</v>
       </c>
-      <c r="C225">
+      <c r="C225" t="n">
         <v>0.04544954600448496</v>
       </c>
-      <c r="D225">
+      <c r="D225" t="n">
         <v>231533988533.9885</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="2">
+    <row r="226">
+      <c r="A226" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B226">
+      <c r="B226" t="n">
         <v>5178041490000</v>
       </c>
-      <c r="C226">
+      <c r="C226" t="n">
         <v>0.04328762592911478</v>
       </c>
-      <c r="D226">
+      <c r="D226" t="n">
         <v>224145123064.5561</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="2">
+    <row r="227">
+      <c r="A227" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B227">
+      <c r="B227" t="n">
         <v>5214187690000</v>
       </c>
-      <c r="C227">
+      <c r="C227" t="n">
         <v>0.0427220800526336</v>
       </c>
-      <c r="D227">
+      <c r="D227" t="n">
         <v>222760943901.6367</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="2">
+    <row r="228">
+      <c r="A228" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B228">
+      <c r="B228" t="n">
         <v>5235568230000</v>
       </c>
-      <c r="C228">
+      <c r="C228" t="n">
         <v>0.0454573348819132</v>
       </c>
-      <c r="D228">
+      <c r="D228" t="n">
         <v>237994978328.2156</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="2">
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B229">
+      <c r="B229" t="n">
         <v>5179738620000</v>
       </c>
-      <c r="C229">
+      <c r="C229" t="n">
         <v>0.04654377558453164</v>
       </c>
-      <c r="D229">
+      <c r="D229" t="n">
         <v>241084591915.8116</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="2">
+    <row r="230">
+      <c r="A230" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B230">
+      <c r="B230" t="n">
         <v>5290478980000</v>
       </c>
-      <c r="C230">
+      <c r="C230" t="n">
         <v>0.0466059236128912</v>
       </c>
-      <c r="D230">
+      <c r="D230" t="n">
         <v>246567659217.4866</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="2">
+    <row r="231">
+      <c r="A231" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B231">
+      <c r="B231" t="n">
         <v>5390398340000</v>
       </c>
-      <c r="C231">
+      <c r="C231" t="n">
         <v>0.04614685313071788</v>
       </c>
-      <c r="D231">
+      <c r="D231" t="n">
         <v>248749920512.0455</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="2">
+    <row r="232">
+      <c r="A232" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B232">
+      <c r="B232" t="n">
         <v>5449356120000</v>
       </c>
-      <c r="C232">
+      <c r="C232" t="n">
         <v>0.04490406247053171</v>
       </c>
-      <c r="D232">
+      <c r="D232" t="n">
         <v>244698227636.6543</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="2">
+    <row r="233">
+      <c r="A233" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B233">
+      <c r="B233" t="n">
         <v>5471474170000</v>
       </c>
-      <c r="C233">
+      <c r="C233" t="n">
         <v>0.04646084512277279</v>
       </c>
-      <c r="D233">
+      <c r="D233" t="n">
         <v>254209314005.6218</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="2">
+    <row r="234">
+      <c r="A234" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B234">
+      <c r="B234" t="n">
         <v>5507491430000</v>
       </c>
-      <c r="C234">
+      <c r="C234" t="n">
         <v>0.04807426512476474</v>
       </c>
-      <c r="D234">
+      <c r="D234" t="n">
         <v>264768603178.1897</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="2">
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B235">
+      <c r="B235" t="n">
         <v>5533467040000</v>
       </c>
-      <c r="C235">
+      <c r="C235" t="n">
         <v>0.04647963262498373</v>
       </c>
-      <c r="D235">
+      <c r="D235" t="n">
         <v>257193515161.6562</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="2">
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B236">
+      <c r="B236" t="n">
         <v>5564521500000</v>
       </c>
-      <c r="C236">
+      <c r="C236" t="n">
         <v>0.04655688553058555</v>
       </c>
-      <c r="D236">
+      <c r="D236" t="n">
         <v>259066790507.9822</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="2">
+    <row r="237">
+      <c r="A237" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B237">
+      <c r="B237" t="n">
         <v>5585492370000</v>
       </c>
-      <c r="C237">
+      <c r="C237" t="n">
         <v>0.04647444834829811</v>
       </c>
-      <c r="D237">
+      <c r="D237" t="n">
         <v>259582676649.3782</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="2">
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B238">
+      <c r="B238" t="n">
         <v>5607639380000</v>
       </c>
-      <c r="C238">
+      <c r="C238" t="n">
         <v>0.04568337764620965</v>
       </c>
-      <c r="D238">
+      <c r="D238" t="n">
         <v>256175907500.2969</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="2">
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B239">
+      <c r="B239" t="n">
         <v>5617130550000</v>
       </c>
-      <c r="C239">
+      <c r="C239" t="n">
         <v>0.04506625866680487</v>
       </c>
-      <c r="D239">
+      <c r="D239" t="n">
         <v>253143058331.5119</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="2">
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B240">
+      <c r="B240" t="n">
         <v>5647837280000</v>
       </c>
-      <c r="C240">
+      <c r="C240" t="n">
         <v>0.04443605096815046</v>
       </c>
-      <c r="D240">
+      <c r="D240" t="n">
         <v>250967585233.9003</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="2">
+    <row r="241">
+      <c r="A241" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B241">
+      <c r="B241" t="n">
         <v>5542014840000</v>
       </c>
-      <c r="C241">
+      <c r="C241" t="n">
         <v>0.0456974690456769</v>
       </c>
-      <c r="D241">
+      <c r="D241" t="n">
         <v>253256051601.582</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="2">
+    <row r="242">
+      <c r="A242" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B242">
+      <c r="B242" t="n">
         <v>5630383690000</v>
       </c>
-      <c r="C242">
+      <c r="C242" t="n">
         <v>0.04615750324833429</v>
       </c>
-      <c r="D242">
+      <c r="D242" t="n">
         <v>259884453460.5434</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="2">
+    <row r="243">
+      <c r="A243" s="2" t="n">
         <v>44593</v>
       </c>
-      <c r="B243">
+      <c r="B243" t="n">
         <v>5704249840000</v>
       </c>
-      <c r="C243">
+      <c r="C243" t="n">
         <v>0.04458006691468044</v>
       </c>
-      <c r="D243">
+      <c r="D243" t="n">
         <v>254295839565.2552</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="2">
+    <row r="244">
+      <c r="A244" s="2" t="n">
         <v>44621</v>
       </c>
-      <c r="B244">
+      <c r="B244" t="n">
         <v>5739159050000</v>
       </c>
-      <c r="C244">
+      <c r="C244" t="n">
         <v>0.04532536815530284</v>
       </c>
-      <c r="D244">
+      <c r="D244" t="n">
         <v>260129496843.0881</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="2">
+    <row r="245">
+      <c r="A245" s="2" t="n">
         <v>44652</v>
       </c>
-      <c r="B245">
+      <c r="B245" t="n">
         <v>5742427260000</v>
       </c>
-      <c r="C245">
+      <c r="C245" t="n">
         <v>0.04284086332907781</v>
       </c>
-      <c r="D245">
+      <c r="D245" t="n">
         <v>246010541422.8308</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="2">
+    <row r="246">
+      <c r="A246" s="2" t="n">
         <v>44682</v>
       </c>
-      <c r="B246">
+      <c r="B246" t="n">
         <v>5825723830000</v>
       </c>
-      <c r="C246">
+      <c r="C246" t="n">
         <v>0.04342473516339642</v>
       </c>
-      <c r="D246">
+      <c r="D246" t="n">
         <v>252980514452.8375</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="2">
+    <row r="247">
+      <c r="A247" s="2" t="n">
         <v>44713</v>
       </c>
-      <c r="B247">
+      <c r="B247" t="n">
         <v>5801917230000</v>
       </c>
-      <c r="C247">
+      <c r="C247" t="n">
         <v>0.0423753053670443</v>
       </c>
-      <c r="D247">
+      <c r="D247" t="n">
         <v>245858014335.5658</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="2">
+    <row r="248">
+      <c r="A248" s="2" t="n">
         <v>44743</v>
       </c>
-      <c r="B248">
+      <c r="B248" t="n">
         <v>5833040250000</v>
       </c>
-      <c r="C248">
+      <c r="C248" t="n">
         <v>0.04154695948963715</v>
       </c>
-      <c r="D248">
+      <c r="D248" t="n">
         <v>242345086968.173</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="2">
+    <row r="249">
+      <c r="A249" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="B249">
+      <c r="B249" t="n">
         <v>5855415460000</v>
       </c>
-      <c r="C249">
+      <c r="C249" t="n">
         <v>0.04101916210157575</v>
       </c>
-      <c r="D249">
+      <c r="D249" t="n">
         <v>240184235925.8127</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="2">
+    <row r="250">
+      <c r="A250" s="2" t="n">
         <v>44805</v>
       </c>
-      <c r="B250">
+      <c r="B250" t="n">
         <v>5887405600000</v>
       </c>
-      <c r="C250">
+      <c r="C250" t="n">
         <v>0.03985937612104495</v>
       </c>
-      <c r="D250">
+      <c r="D250" t="n">
         <v>234668314187.5463</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="2">
+    <row r="251">
+      <c r="A251" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B251">
+      <c r="B251" t="n">
         <v>5915934540000</v>
       </c>
-      <c r="C251">
+      <c r="C251" t="n">
         <v>0.04037255796490009</v>
       </c>
-      <c r="D251">
+      <c r="D251" t="n">
         <v>238841410132.7046</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="2">
+    <row r="252">
+      <c r="A252" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="B252">
+      <c r="B252" t="n">
         <v>5940210650000</v>
       </c>
-      <c r="C252">
+      <c r="C252" t="n">
         <v>0.04275185115515502</v>
       </c>
-      <c r="D252">
+      <c r="D252" t="n">
         <v>253955001539.0667</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="2">
+    <row r="253">
+      <c r="A253" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B253">
+      <c r="B253" t="n">
         <v>5817095330000</v>
       </c>
-      <c r="C253">
+      <c r="C253" t="n">
         <v>0.04434186692562317</v>
       </c>
-      <c r="D253">
+      <c r="D253" t="n">
         <v>257940867016.524</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="2">
+    <row r="254">
+      <c r="A254" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="B254">
+      <c r="B254" t="n">
         <v>5950864520000</v>
       </c>
-      <c r="C254">
+      <c r="C254" t="n">
         <v>0.04569318851638786</v>
       </c>
-      <c r="D254">
+      <c r="D254" t="n">
         <v>271913974347.8439</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="2">
+    <row r="255">
+      <c r="A255" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B255">
+      <c r="B255" t="n">
         <v>6045092150000</v>
       </c>
-      <c r="C255">
+      <c r="C255" t="n">
         <v>0.04501229961086867</v>
       </c>
-      <c r="D255">
+      <c r="D255" t="n">
         <v>272103499031.1103</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="2">
+    <row r="256">
+      <c r="A256" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B256">
+      <c r="B256" t="n">
         <v>6077524080000</v>
       </c>
-      <c r="C256">
+      <c r="C256" t="n">
         <v>0.04620292787953972</v>
       </c>
-      <c r="D256">
+      <c r="D256" t="n">
         <v>280799406754.406</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="2">
+    <row r="257">
+      <c r="A257" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B257">
+      <c r="B257" t="n">
         <v>6141246740000</v>
       </c>
-      <c r="C257">
+      <c r="C257" t="n">
         <v>0.04682075376731491</v>
       </c>
-      <c r="D257">
+      <c r="D257" t="n">
         <v>287537801437.8654</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="2">
+    <row r="258">
+      <c r="A258" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="B258">
+      <c r="B258" t="n">
         <v>6224248910000</v>
       </c>
-      <c r="C258">
+      <c r="C258" t="n">
         <v>0.04506372010022171</v>
       </c>
-      <c r="D258">
+      <c r="D258" t="n">
         <v>280487810714.3501</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="2">
+    <row r="259">
+      <c r="A259" s="2" t="n">
         <v>45078</v>
       </c>
-      <c r="B259">
+      <c r="B259" t="n">
         <v>6243090940000</v>
       </c>
-      <c r="C259">
+      <c r="C259" t="n">
         <v>0.04592443593311565</v>
       </c>
-      <c r="D259">
+      <c r="D259" t="n">
         <v>286710429898.6448</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="2">
+    <row r="260">
+      <c r="A260" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B260">
+      <c r="B260" t="n">
         <v>6355692770000</v>
       </c>
-      <c r="C260">
+      <c r="C260" t="n">
         <v>0.04603977376055174</v>
       </c>
-      <c r="D260">
+      <c r="D260" t="n">
         <v>292614657222.3744</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
-      <c r="A261" s="2">
+    <row r="261">
+      <c r="A261" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="B261">
+      <c r="B261" t="n">
         <v>6337051350000</v>
       </c>
-      <c r="C261">
+      <c r="C261" t="n">
         <v>0.04504991530615922</v>
       </c>
-      <c r="D261">
+      <c r="D261" t="n">
         <v>285483626608.2819</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="2">
+    <row r="262">
+      <c r="A262" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B262">
+      <c r="B262" t="n">
         <v>6359439990000</v>
       </c>
-      <c r="C262">
+      <c r="C262" t="n">
         <v>0.04329632219391124</v>
       </c>
-      <c r="D262">
+      <c r="D262" t="n">
         <v>275340362779.8837</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="2">
+    <row r="263">
+      <c r="A263" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="B263">
-        <v>6385550740000</v>
-      </c>
-      <c r="C263">
+      <c r="B263" t="n">
+        <v>6385567190000</v>
+      </c>
+      <c r="C263" t="n">
         <v>0.04303574118305253</v>
       </c>
-      <c r="D263">
-        <v>274806908957.8895</v>
+      <c r="D263" t="n">
+        <v>274807616895.832</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B264" t="n">
+        <v>6408028910000</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.0447810987938211</v>
+      </c>
+      <c r="D264" t="n">
+        <v>286958575692.3717</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/Czech Republic.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Czech Republic.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Czech Republic_M2 (CZK)</t>
+  </si>
+  <si>
+    <t>Czech Republic_FX (USD)</t>
+  </si>
+  <si>
+    <t>Czech Republic_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,3603 +385,3547 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D264"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D265"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Czech Republic_M2 (CZK)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Czech Republic_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Czech Republic_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>37257</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1338996240000</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>37288</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1343323750000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>37316</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1331051750000</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>37347</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1351715080000</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>37377</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1369800750000</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>37408</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1326829940000</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>37438</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1349083360000</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>37469</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1376758480000</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>37500</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1369943190000</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>37530</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1405644210000</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>37561</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1413037240000</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>37591</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1410235190000</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>37622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1414895380000</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>37653</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>1417120580000</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>37681</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1410427990000</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
         <v>37712</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>1437691540000</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
         <v>37742</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>1433220720000</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
         <v>37773</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>1422692810000</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
         <v>37803</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>1463791450000</v>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
         <v>37834</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1482925200000</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
         <v>37865</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>1476599640000</v>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
         <v>37895</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1484453290000</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
         <v>37926</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1495210990000</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
         <v>37956</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1511507440000</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
         <v>37987</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1504296110000</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
         <v>38018</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1510599540000</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
         <v>38047</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1511369020000</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
         <v>38078</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1543667730000</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
         <v>38108</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1548622640000</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
         <v>38139</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1553886080000</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.03821753420469311</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>59385694412.5965</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
         <v>38169</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1566887940000</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.03794634386976815</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>59457668576.63264</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
         <v>38200</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1581312420000</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.03826081633277728</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>60502304066.35957</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
         <v>38231</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1582199580000</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.03941042011507843</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>62355150153.70064</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
         <v>38261</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1596899450000</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.0403520311194864</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>64438136301.09071</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
         <v>38292</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1590256060000</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.04288091113359977</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>68191628788.5285</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>38322</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1578889780000</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.04460959909353295</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>70433640098.67644</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
         <v>38353</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>1571843320000</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.04332323901864199</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>68097343852.21577</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
         <v>38384</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>1594197220000</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.04455553624815652</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>71030312022.42035</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
         <v>38412</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>1588817230000</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.04314119682308226</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>68543476835.33436</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
         <v>38443</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>1626076360000</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.04213418051125615</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>68513394877.32634</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
         <v>38473</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>1651245200000</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.04053161263127176</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>66927630805.64686</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
         <v>38504</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>1656472660000</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.04023950553695596</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>66655640773.88617</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
         <v>38534</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>1671234850000</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.04017500231006263</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>67141863959.40717</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
         <v>38565</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>1674838950000</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.04199439794731383</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>70333853363.96124</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
         <v>38596</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>1672753690000</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.04060435522314124</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>67921085029.58028</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
         <v>38626</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1701737620000</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.04045258350424549</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>68839683175.36598</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
         <v>38657</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1732929220000</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.04073170433670456</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>70585160625.47606</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
         <v>38687</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1746148190000</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.04072871822650869</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>71118377612.23816</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
         <v>38718</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>1765945610000</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>0.04285959197668438</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>75687708297.617</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
         <v>38749</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>1781266700000</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>0.04210934111513957</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>75007967087.33899</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
         <v>38777</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>1782170090000</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0.04256713902001932</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>75861881978.35034</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
         <v>38808</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>1831666200000</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>0.04432977808513091</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>81197356172.035</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
         <v>38838</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>1836479050000</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.04530873371151024</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>83208540243.2173</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
         <v>38869</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>1853332430000</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>0.04487283039865023</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>83164271803.7083</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
         <v>38899</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>1870437220000</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>0.04480768541420225</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>83809962540.77501</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
         <v>38930</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>1902606860000</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>0.04534633261534974</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>86276243509.80615</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
         <v>38961</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>1890417570000</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>0.04477478284230321</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>84643036178.02454</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
         <v>38991</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>1930600830000</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>0.04535126824821656</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>87555196121.55954</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
         <v>39022</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>1946581850000</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>0.04749398013801751</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>92450919720.92537</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
         <v>39052</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>1984629210000</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>0.04801782421634911</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>95297576540.41179</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
         <v>39083</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>2008484650000</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>0.04636670499647613</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>93126815256.50061</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
         <v>39114</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>2034778430000</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>0.04685486704931475</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>95339272812.46339</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
         <v>39142</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>2040597170000</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>0.04768353392206603</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>97302884376.96695</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
         <v>39173</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>2108093720000</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>0.04840573298139138</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>102043821710.0681</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
         <v>39203</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>2135635990000</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>0.04756133986001746</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>101573709137.6749</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
         <v>39234</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>2138669310000</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>0.04710728306860611</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>100746900576.3105</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
         <v>39264</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>2162789270000</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>0.04874520103495811</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>105425597762.4003</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
         <v>39295</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>2190246640000</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>0.0492199135895197</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>107803750360.5359</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
         <v>39326</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>2171105020000</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>0.05178580768511743</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>112432427029.913</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
         <v>39356</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>2218763700000</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>0.05373397384230154</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>119222990618.0482</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
         <v>39387</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>2260273180000</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>0.05577170188463735</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>126059281972.8013</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
         <v>39417</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>2308662830000</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>0.05502217668831423</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>127027654146.0036</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
         <v>39448</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>2315205460000</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>0.05712653527563553</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>132259666381.034</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
         <v>39479</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>2332657220000</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>0.06045766452041957</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>141027007647.8946</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
         <v>39508</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>2332645010000</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>0.06257430698955009</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>145963644953.3821</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
         <v>39539</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>2371463610000</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>0.06188501763723003</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>146758067330.8992</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
         <v>39569</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>2398932080000</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>0.0621272365805169</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>149039020874.7515</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
         <v>39600</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>2382676490000</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>0.06595435958316845</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>157147901991.8217</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
         <v>39630</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>2432765160000</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>0.06513597134017261</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>158460521739.1304</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
         <v>39661</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>2468169940000</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>0.05916634618229152</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>146032597106.7657</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
         <v>39692</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>2470692550000</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>0.05753243390961655</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>142144955843.857</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
         <v>39722</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>2510264130000</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>0.0529145324471913</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>132829452757.9054</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
         <v>39753</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>2548374000000</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>0.05002401152553225</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>127479890347.3667</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
         <v>39783</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>2633893500000</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>0.05203048986706209</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>137042769062.6707</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
         <v>39814</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>2646649570000</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>0.04583434550846331</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>121307450831.2059</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
         <v>39845</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>2660287780000</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>0.04506351702724991</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>119881923671.4149</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
         <v>39873</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>2630718630000</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>0.0484202881007142</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>127380153976.5162</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
         <v>39904</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>2655169050000</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>0.04946112108577053</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>131327637885.2403</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
         <v>39934</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>2677539170000</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>0.0525226635293129</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>140631488912.4657</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
         <v>39965</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>2623407730000</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>0.05409891228726955</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>141923504679.0149</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
         <v>39995</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>2607629040000</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.0557911180540058</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>145482539611.6938</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
         <v>40026</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>2602237950000</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>0.05628504095581005</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>146467069592.5132</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
         <v>40057</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>2564930980000</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>0.05798244291628495</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>148720964132.0608</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
         <v>40087</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>2593463140000</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>0.05548786036590914</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>143905720576.4523</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
         <v>40118</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>2607424980000</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>0.05737303777039195</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>149595891861.0035</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
         <v>40148</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>2649474870000</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>0.05416501914733427</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>143508857063.931</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
         <v>40179</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>2613108220000</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>0.05287972401014444</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>138180441482.2398</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
         <v>40210</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>2604635960000</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>0.05256352301756673</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>136908842235.842</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
         <v>40238</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>2615430160000</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>0.05319856363878175</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>139137127809.5491</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
         <v>40269</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>2658356430000</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>0.05188366230169415</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>137925267291.6573</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
         <v>40299</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>2706023290000</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>0.04823517154356408</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>130525497594.0296</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
         <v>40330</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>2699720950000</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>0.04761040973042509</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>128534820587.3125</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
         <v>40360</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>2688201720000</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>0.05263723052369833</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>141499493629.8424</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
         <v>40391</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>2676339180000</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>0.05120089130511584</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>137030951450.8029</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
         <v>40422</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>2672467780000</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>0.05542588976566488</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>148123904576.5711</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
         <v>40452</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>2674346810000</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>0.05662482092400383</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>151434409204.9309</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
         <v>40483</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>2673542390000</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>0.05204140205782112</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>139134894436.618</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
         <v>40513</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>2707985520000</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>0.05343307507347048</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>144695993588.031</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
         <v>40544</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>2684440450000</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>0.05661199834692964</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>151971538317.8311</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
         <v>40575</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>2687563160000</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>0.05668114870015956</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>152334167113.0307</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
         <v>40603</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>2673812820000</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>0.05769980866743446</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>154278488126.5334</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
         <v>40634</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>2704409450000</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>0.06123773714313709</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>165611915026.516</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
         <v>40664</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>2719433420000</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>0.05861650969165371</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>159403695419.237</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
         <v>40695</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>2690130540000</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>0.05956429906519789</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>160235740008.9823</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
         <v>40725</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>2717102700000</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>0.05953940317702255</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>161774673128.6766</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
         <v>40756</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>2707950330000</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>0.05956696011336784</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>161304369296.0913</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
         <v>40787</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>2739667530000</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>0.05423731755244342</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>148592217812.7283</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
         <v>40817</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>2745291100000</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>0.05569947681481428</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>152911277974.366</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
         <v>40848</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>2766283370000</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>0.0531697124050256</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>147082491213.705</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
         <v>40878</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>2818680190000</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>0.05066487515668113</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>142808079932.9603</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
         <v>40909</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>2810082710000</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>0.05167133517179943</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>145200725568.8885</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
         <v>40940</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>2836929050000</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>0.05351780564152597</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>151826217516.6989</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
         <v>40969</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>2830755990000</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>0.05378773209406398</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>152259944813.7869</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
         <v>41000</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>2853190610000</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>0.05307748569827148</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>151440183796.7175</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
         <v>41030</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>2873941190000</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>0.04808059846882526</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>138180812379.4078</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
         <v>41061</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>2869554030000</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>0.04962229986458074</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>142393870554.2761</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
         <v>41091</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>2884564010000</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>0.04857757571665283</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>140125126605.3067</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:4">
+      <c r="A129" s="2">
         <v>41122</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>2877996940000</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>0.05059732674083897</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>145618951532.3147</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
         <v>41153</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>2868038240000</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>0.05116788130688909</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>146751440247.9391</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
         <v>41183</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>2901251280000</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>0.0516481705959734</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>149844321051.2262</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
         <v>41214</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>2911366800000</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>0.0514371011695768</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>149752268633.3471</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:4">
+      <c r="A133" s="2">
         <v>41244</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>2949574040000</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>0.05260339460226048</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>155157607134.7036</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:4">
+      <c r="A134" s="2">
         <v>41275</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>2947320670000</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>0.05290070431997732</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>155915339299.8274</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:4">
+      <c r="A135" s="2">
         <v>41306</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>2964974100000</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>0.05087510264051958</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>150843361663.9822</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:4">
+      <c r="A136" s="2">
         <v>41334</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>2968084680000</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>0.04981017342906185</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>147840812662.9415</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:4">
+      <c r="A137" s="2">
         <v>41365</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>2983255360000</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>0.05102269897832148</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>152213740208.7441</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:4">
+      <c r="A138" s="2">
         <v>41395</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>2983005970000</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>0.05052224848256427</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>150708168841.3127</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:4">
+      <c r="A139" s="2">
         <v>41426</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>2981373150000</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>0.05002886665606054</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>149154719773.3092</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:4">
+      <c r="A140" s="2">
         <v>41456</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>3026742140000</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>0.05128223537212698</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>155218102834.2153</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:4">
+      <c r="A141" s="2">
         <v>41487</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>3011787370000</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>0.0513465109018912</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>154644773027.8832</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:4">
+      <c r="A142" s="2">
         <v>41518</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>3012468260000</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>0.05265635514815918</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>158625598571.1171</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:4">
+      <c r="A143" s="2">
         <v>41548</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>3027604710000</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>0.05266567304096863</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>159450839754.1566</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:4">
+      <c r="A144" s="2">
         <v>41579</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>3070322380000</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>0.04966204975144144</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>152478502788.5241</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>41609</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>3097920160000</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>0.05043256006770067</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>156236044554.1409</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>41640</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>3088469210000</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>0.04899530233041256</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>151320482682.1205</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
         <v>41671</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>3116626090000</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>0.05051770544540451</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>157444798798.0828</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
         <v>41699</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>3126444620000</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>0.05016474100947511</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>156837284642.7668</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
         <v>41730</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>3148018390000</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>0.05052212085800707</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>159044565562.8088</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
         <v>41760</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>3165959620000</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>0.04959854934162886</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>157027004426.1745</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
         <v>41791</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>3142213600000</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>0.04988496527008719</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>156749216307.1956</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
         <v>41821</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>3167890400000</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>0.04838177477896786</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>153268159857.2544</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
         <v>41852</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>3169130240000</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>0.04735949503412015</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>150088407863.76</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
         <v>41883</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>3171521370000</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>0.04593426622765757</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>145681506956.2852</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
         <v>41913</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>3202006490000</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>0.04505328451960133</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>144260909427.58</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
         <v>41944</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>3238165300000</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>0.04508110993299144</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>145980085870.4982</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
         <v>41974</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>3301158380000</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>0.04367437781481365</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>144176038314.6582</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
         <v>42005</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>3292105450000</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>0.04067274344568907</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>133898960364.0048</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
         <v>42036</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>3330004730000</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>0.04070209485541802</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>135538168389.4507</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
         <v>42064</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>3332309480000</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>0.03894414630536884</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>129773947923.8876</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>42095</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>3368176040000</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>0.04086750265230092</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>137648943248.1164</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>42125</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>3390052450000</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>0.04008048160706699</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>135874934869.2174</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>42156</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>3377484510000</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>0.04083932990827487</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>137934204163.9781</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>42186</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>3419180560000</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>0.04057048594516655</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>138717816853.4667</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>42217</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>3430151430000</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>0.04146236088341364</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>142222176475.4174</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>42248</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>3466902180000</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>0.04110591349671563</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>142510181112.6548</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>42278</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>3502753750000</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>0.0406197270516821</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>142280901254.2559</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>42309</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>3556384960000</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>0.03907973477365604</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>138982580989.8193</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>42339</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>3577992780000</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>0.04022749452704937</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>143933684975.2722</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>42370</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>3599727010000</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>0.04008835473383337</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>144307133321.8413</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>42401</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>3622849250000</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>0.04016683697405544</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>145518395206.329</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>42430</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>3632237780000</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>0.04208509775105655</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>152863082026.3806</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>42461</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>3661713540000</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>0.04233979890289113</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>155036214923.5936</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>42491</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>3702794260000</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>0.04119511986132075</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>152537053362.5105</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>42522</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>3690058260000</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>0.04100959050283499</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>151327778174.2038</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>42552</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>3725644040000</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>0.04133081931736365</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>153983920658.0528</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>42583</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>3744791890000</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>0.04128662329919756</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>154609812096.3201</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>42614</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>3758738350000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>0.04160521230099707</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>156383107035.6494</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>42644</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>3783983090000</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>0.0406371911573472</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>153770444164.4993</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>42675</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>3849082360000</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>0.03914828980695978</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>150684991720.1367</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>42705</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>3812905510000</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>0.03892974349192013</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>148435433463.2289</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>42736</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>3891072340000</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>0.03995930544333651</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>155484548136.1781</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>42767</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>3945119310000</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>0.039139218984713</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>154408888594.9099</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>42795</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>4017463390000</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>0.0394154530648668</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>158350139688.3657</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>42826</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>4081978010000</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>0.04059896464520361</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>165724080910.4886</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>42856</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>4094146990000</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>0.042664591460938</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>174675108709.379</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>42887</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>4060060440000</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>0.04373559732110719</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>177569168503.1973</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>42917</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>4094654780000</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>0.0454016319162576</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>185904009145.7047</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>42948</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>4121927630000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>0.04561163607570254</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>188007862989.9431</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>42979</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>4127941020000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>0.04547945579283198</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>187736511134.5078</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>43009</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>4109347610000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>0.04538836097181927</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>186516552681.3628</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>43040</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>4140657640000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>0.04665097327925552</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>193165708922.1852</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>43070</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>4139907940000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>0.04698466514498998</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>194512188291.9853</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>43101</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>4162727150000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>0.04912011144370884</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>204473621517.7525</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>43132</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>4204413050000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>0.04799141529563192</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>201775732756.9244</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>43160</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>4214303570000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>0.04863836886366179</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>204976851541.1067</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>43191</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>4241318890000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>0.04719478894018438</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>200168149841.5671</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>43221</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>4298226870000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>0.04527855594007112</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>194617505776.4118</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>43252</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>4274973110000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>0.04498463999467382</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>192308126340.2611</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>43282</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>4288848410000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>0.04572109946442304</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>196090864741.4426</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>43313</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>4318593920000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>0.04502861568526798</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>194460305924.4149</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>43344</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>4298066580000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>0.04503400968411345</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>193559171986.6844</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>43374</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>4337116710000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>0.04362771424370703</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>189218488465.4868</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>43405</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>4396797950000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>0.04356394926368213</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>191541882816.4616</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>43435</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>4373594970000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>0.04458767988899451</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>195008452486.4765</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>43466</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>4411934620000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>0.04444736809354571</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>196098882059.7977</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>43497</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>4457696450000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>0.04436539516922958</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>197767464548.7219</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>43525</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>4464312880000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.04344526136017555</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>193953239865.1981</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>43556</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>4512969740000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.04375161334074194</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>197449707082.9487</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>43586</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>4577407590000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>0.04321857361419643</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>197829026890.5965</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>43617</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>4566459490000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>0.04472023912806267</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>204213160361.4111</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>43647</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>4592275590000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.04312207255029975</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>198028441162.9506</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>43678</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>4639859400000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.04232044703934617</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>196360924007.7125</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>43709</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>4641345140000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.04225410435242627</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>196115881881.1865</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>43739</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>4681223420000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.04370755450113509</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>204604827761.64</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>43770</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>4725508480000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>0.04313419998567945</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>203831027810.3441</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>43800</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>4680322510000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>0.04410637398853057</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>206432055012.9981</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>43831</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>4759123950000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>0.04399003713638935</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>209354039297.18</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>43862</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>4809150480000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.04331535745998744</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>208310072120.0702</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>43891</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>4932508490000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>0.04031443647875974</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>198851300201.0481</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>43922</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>4958595660000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>0.04036895611127461</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>200173330572.0967</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>43952</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>5004666910000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>0.04121819552510538</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>206283339234.405</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>43983</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>5020790900000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>0.04211998298352687</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>211475627271.8466</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>44013</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>5059232680000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>0.04488479419873012</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>227082617645.2899</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>44044</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>5094308060000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>0.04544954600448496</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>231533988533.9885</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>44075</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>5178041490000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>0.04328762592911478</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>224145123064.5561</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>44105</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>5214187690000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>0.0427220800526336</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>222760943901.6367</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>44136</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>5235568230000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>0.0454573348819132</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>237994978328.2156</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>44166</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>5179738620000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>0.04654377558453164</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>241084591915.8116</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>44197</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>5290478980000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>0.0466059236128912</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>246567659217.4866</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>44228</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>5390398340000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>0.04614685313071788</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>248749920512.0455</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>44256</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>5449356120000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>0.04490406247053171</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>244698227636.6543</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>44287</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>5471474170000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>0.04646084512277279</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>254209314005.6218</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>44317</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>5507491430000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>0.04807426512476474</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>264768603178.1897</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>44348</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>5533467040000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>0.04647963262498373</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>257193515161.6562</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>44378</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>5564521500000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>0.04655688553058555</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>259066790507.9822</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>44409</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>5585492370000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>0.04647444834829811</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>259582676649.3782</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>44440</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>5607639380000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>0.04568337764620965</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>256175907500.2969</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>44470</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>5617130550000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>0.04506625866680487</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>253143058331.5119</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>44501</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>5647837280000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>0.04443605096815046</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>250967585233.9003</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>44531</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>5542014840000</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>0.0456974690456769</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>253256051601.582</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>44562</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>5630383690000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>0.04615750324833429</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>259884453460.5434</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>44593</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>5704249840000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>0.04458006691468044</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>254295839565.2552</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>44621</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>5739159050000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>0.04532536815530284</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>260129496843.0881</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>44652</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>5742427260000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>0.04284086332907781</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>246010541422.8308</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>44682</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>5825723830000</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>0.04342473516339642</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>252980514452.8375</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>44713</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>5801917230000</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>0.0423753053670443</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>245858014335.5658</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>44743</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>5833040250000</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>0.04154695948963715</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>242345086968.173</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>44774</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>5855415460000</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>0.04101916210157575</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>240184235925.8127</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>44805</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>5887405600000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>0.03985937612104495</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>234668314187.5463</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>44835</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>5915934540000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>0.04037255796490009</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>238841410132.7046</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>44866</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>5940210650000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>0.04275185115515502</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>253955001539.0667</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>44896</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>5817095330000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>0.04434186692562317</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>257940867016.524</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>44927</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>5950864520000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>0.04569318851638786</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>271913974347.8439</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>44958</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>6045092150000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>0.04501229961086867</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>272103499031.1103</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>44986</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>6077524080000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>0.04620292787953972</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>280799406754.406</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>45017</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>6141246740000</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>0.04682075376731491</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>287537801437.8654</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>45047</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>6224248910000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>0.04506372010022171</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>280487810714.3501</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>45078</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>6243090940000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>0.04592443593311565</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>286710429898.6448</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>45108</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>6355692770000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>0.04603977376055174</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>292614657222.3744</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>45139</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>6337051350000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>0.04504991530615922</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>285483626608.2819</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>45170</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>6359439990000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>0.04329632219391124</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>275340362779.8837</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
         <v>45200</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>6385567190000</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>0.04303574118305253</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>274807616895.832</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
         <v>45231</v>
       </c>
-      <c r="B264" t="n">
-        <v>6408028910000</v>
-      </c>
-      <c r="C264" t="n">
+      <c r="B264">
+        <v>6408217560000</v>
+      </c>
+      <c r="C264">
         <v>0.0447810987938211</v>
       </c>
-      <c r="D264" t="n">
-        <v>286958575692.3717</v>
+      <c r="D264">
+        <v>286967023646.6592</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B265">
+        <v>6315940620000</v>
+      </c>
+      <c r="C265">
+        <v>0.04468375075403829</v>
+      </c>
+      <c r="D265">
+        <v>282219916441.386</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>